--- a/sriramModel-nelson-atypical-patientID_21-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_21-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.022365058729477</v>
+        <v>1.207416241323671</v>
       </c>
       <c r="C2">
-        <v>1.038988453421634</v>
+        <v>1.131827562720793</v>
       </c>
       <c r="D2">
-        <v>0.9898710616361648</v>
+        <v>1.224684854888645</v>
       </c>
       <c r="E2">
-        <v>0.9443776316846119</v>
+        <v>1.218507254485052</v>
       </c>
       <c r="F2">
-        <v>1.12437577535153</v>
+        <v>1.054444831828875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.044423733858588</v>
+        <v>1.414577710085409</v>
       </c>
       <c r="C3">
-        <v>1.077467746994794</v>
+        <v>1.262508404284905</v>
       </c>
       <c r="D3">
-        <v>0.9792483625198275</v>
+        <v>1.448908544929501</v>
       </c>
       <c r="E3">
-        <v>0.8895279474288108</v>
+        <v>1.436604249325742</v>
       </c>
       <c r="F3">
-        <v>1.247204628618296</v>
+        <v>1.107730877005827</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.066187345789704</v>
+        <v>1.621498350058435</v>
       </c>
       <c r="C4">
-        <v>1.115452719731508</v>
+        <v>1.392104419987191</v>
       </c>
       <c r="D4">
-        <v>0.968139382605778</v>
+        <v>1.672697545706129</v>
       </c>
       <c r="E4">
-        <v>0.8355176225515072</v>
+        <v>1.654309867343937</v>
       </c>
       <c r="F4">
-        <v>1.368533574381849</v>
+        <v>1.159902570426623</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.087666592379012</v>
+        <v>1.828190927059315</v>
       </c>
       <c r="C5">
-        <v>1.15295749408609</v>
+        <v>1.520672180799956</v>
       </c>
       <c r="D5">
-        <v>0.9565520467042636</v>
+        <v>1.896075981749162</v>
       </c>
       <c r="E5">
-        <v>0.7824213554619783</v>
+        <v>1.871641605128624</v>
       </c>
       <c r="F5">
-        <v>1.48840340977338</v>
+        <v>1.210997786292729</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.108871313181571</v>
+        <v>2.034667201649291</v>
       </c>
       <c r="C6">
-        <v>1.189995509981607</v>
+        <v>1.648263711440733</v>
       </c>
       <c r="D6">
-        <v>0.9444947752349642</v>
+        <v>2.119065997678093</v>
       </c>
       <c r="E6">
-        <v>0.7303225892685175</v>
+        <v>2.088615773637883</v>
       </c>
       <c r="F6">
-        <v>1.606849512817583</v>
+        <v>1.261049251562343</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.129810632874436</v>
+        <v>2.240938053679993</v>
       </c>
       <c r="C7">
-        <v>1.226579631663419</v>
+        <v>1.774926808277699</v>
       </c>
       <c r="D7">
-        <v>0.9319765064332781</v>
+        <v>2.341687965800612</v>
       </c>
       <c r="E7">
-        <v>0.6793146779030969</v>
+        <v>2.305247590616789</v>
       </c>
       <c r="F7">
-        <v>1.723902489167992</v>
+        <v>1.310085506589563</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.150492993636475</v>
+        <v>2.447013495404974</v>
       </c>
       <c r="C8">
-        <v>1.262722122374239</v>
+        <v>1.90070560907533</v>
       </c>
       <c r="D8">
-        <v>0.9190067135276695</v>
+        <v>2.563960570572346</v>
       </c>
       <c r="E8">
-        <v>0.6295020049592343</v>
+        <v>2.521551214919112</v>
       </c>
       <c r="F8">
-        <v>1.839588761575444</v>
+        <v>1.358131552198907</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.170926224141473</v>
+        <v>2.652902799469136</v>
       </c>
       <c r="C9">
-        <v>1.298434676667619</v>
+        <v>2.025640989474533</v>
       </c>
       <c r="D9">
-        <v>0.9055954369545963</v>
+        <v>2.785901076200783</v>
       </c>
       <c r="E9">
-        <v>0.581001011776219</v>
+        <v>2.737539897773186</v>
       </c>
       <c r="F9">
-        <v>1.953931047467451</v>
+        <v>1.405209465613988</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.191117597411391</v>
+        <v>2.858614584945483</v>
       </c>
       <c r="C10">
-        <v>1.333728480021691</v>
+        <v>2.149770834591727</v>
       </c>
       <c r="D10">
-        <v>0.8917533206615256</v>
+        <v>3.007525470531783</v>
       </c>
       <c r="E10">
-        <v>0.533941149796259</v>
+        <v>2.953226060864289</v>
       </c>
       <c r="F10">
-        <v>2.066948789392542</v>
+        <v>1.451338933207007</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.211073858199001</v>
+        <v>3.064156870223657</v>
       </c>
       <c r="C11">
-        <v>1.368614243475666</v>
+        <v>2.273130337381494</v>
       </c>
       <c r="D11">
-        <v>0.8774916527557824</v>
+        <v>3.228848563809326</v>
       </c>
       <c r="E11">
-        <v>0.4884655404838731</v>
+        <v>3.168621348453201</v>
       </c>
       <c r="F11">
-        <v>2.178658384332125</v>
+        <v>1.496537631200172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.23080121372243</v>
+        <v>3.26953711783406</v>
       </c>
       <c r="C12">
-        <v>1.403102227646837</v>
+        <v>2.395752281831873</v>
       </c>
       <c r="D12">
-        <v>0.8628224035665246</v>
+        <v>3.449884087176065</v>
       </c>
       <c r="E12">
-        <v>0.444731115749481</v>
+        <v>3.383736681558111</v>
       </c>
       <c r="F12">
-        <v>2.289073577848115</v>
+        <v>1.540821479011922</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.250305369200504</v>
+        <v>3.474762278496696</v>
       </c>
       <c r="C13">
-        <v>1.437202256861424</v>
+        <v>2.517667266093355</v>
       </c>
       <c r="D13">
-        <v>0.8477582633147227</v>
+        <v>3.670644804548133</v>
       </c>
       <c r="E13">
-        <v>0.4029079026673687</v>
+        <v>3.598582321736855</v>
       </c>
       <c r="F13">
-        <v>2.398205826386374</v>
+        <v>1.584204892706399</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.269591572311417</v>
+        <v>3.679838842916338</v>
       </c>
       <c r="C14">
-        <v>1.470923743714207</v>
+        <v>2.638903885493296</v>
       </c>
       <c r="D14">
-        <v>0.8323126821709576</v>
+        <v>3.891142605912724</v>
       </c>
       <c r="E14">
-        <v>0.36317699996729</v>
+        <v>3.813167925636036</v>
       </c>
       <c r="F14">
-        <v>2.506064516081537</v>
+        <v>1.626700988374264</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.288664639340156</v>
+        <v>3.884772888163661</v>
       </c>
       <c r="C15">
-        <v>1.504275717275734</v>
+        <v>2.759488918175873</v>
       </c>
       <c r="D15">
-        <v>0.8164999277882844</v>
+        <v>4.111388581234616</v>
       </c>
       <c r="E15">
-        <v>0.3257266674558494</v>
+        <v>4.027502590353281</v>
       </c>
       <c r="F15">
-        <v>2.612657115447002</v>
+        <v>1.668321757423928</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.307528967866653</v>
+        <v>4.089570107169491</v>
       </c>
       <c r="C16">
-        <v>1.537266842383215</v>
+        <v>2.879447473490777</v>
       </c>
       <c r="D16">
-        <v>0.8003350895274526</v>
+        <v>4.331393084091542</v>
       </c>
       <c r="E16">
-        <v>0.2907457906067408</v>
+        <v>4.241594892918076</v>
       </c>
       <c r="F16">
-        <v>2.717989391264651</v>
+        <v>1.709078205913318</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.326188547965788</v>
+        <v>4.294235837604965</v>
       </c>
       <c r="C17">
-        <v>1.569905438632301</v>
+        <v>2.998803091311973</v>
       </c>
       <c r="D17">
-        <v>0.7838341792403583</v>
+        <v>4.5511657943458</v>
       </c>
       <c r="E17">
-        <v>0.2584145813664015</v>
+        <v>4.455452924664134</v>
       </c>
       <c r="F17">
-        <v>2.822065582113803</v>
+        <v>1.748980469489731</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.344646977206682</v>
+        <v>4.498775090700406</v>
       </c>
       <c r="C18">
-        <v>1.602199492927905</v>
+        <v>3.117577932503761</v>
       </c>
       <c r="D18">
-        <v>0.7670140987085174</v>
+        <v>4.770715774098341</v>
       </c>
       <c r="E18">
-        <v>0.2288919381247756</v>
+        <v>4.669084332442137</v>
       </c>
       <c r="F18">
-        <v>2.924888593157838</v>
+        <v>1.788037922628939</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.362907478306227</v>
+        <v>4.703192583283059</v>
       </c>
       <c r="C19">
-        <v>1.634156678995969</v>
+        <v>3.235792893144347</v>
       </c>
       <c r="D19">
-        <v>0.7498927726011415</v>
+        <v>4.990051497300258</v>
       </c>
       <c r="E19">
-        <v>0.2023001621726337</v>
+        <v>4.882496326711268</v>
       </c>
       <c r="F19">
-        <v>3.026460122789327</v>
+        <v>1.826259256067703</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.380972868784058</v>
+        <v>4.907492733080399</v>
       </c>
       <c r="C20">
-        <v>1.665784370180085</v>
+        <v>3.353467681097424</v>
       </c>
       <c r="D20">
-        <v>0.7324891672104681</v>
+        <v>5.209180886971573</v>
       </c>
       <c r="E20">
-        <v>0.1787087297924601</v>
+        <v>5.095695746883901</v>
       </c>
       <c r="F20">
-        <v>3.126780806054074</v>
+        <v>1.863652546828012</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.398845630058065</v>
+        <v>5.111679711919031</v>
       </c>
       <c r="C21">
-        <v>1.697089652050311</v>
+        <v>3.470620906835931</v>
       </c>
       <c r="D21">
-        <v>0.7148233336831989</v>
+        <v>5.428111398706051</v>
       </c>
       <c r="E21">
-        <v>0.1581195094050645</v>
+        <v>5.308689018593619</v>
       </c>
       <c r="F21">
-        <v>3.225850328956292</v>
+        <v>1.900225323283141</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.416527848116968</v>
+        <v>5.315757435363897</v>
       </c>
       <c r="C22">
-        <v>1.728079334968096</v>
+        <v>3.587270162659157</v>
       </c>
       <c r="D22">
-        <v>0.6969164835992373</v>
+        <v>5.646849993681112</v>
       </c>
       <c r="E22">
-        <v>0.1404576342620504</v>
+        <v>5.521482262001882</v>
       </c>
       <c r="F22">
-        <v>3.323667521102595</v>
+        <v>1.935984621771763</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.434021284370384</v>
+        <v>5.519729602056744</v>
       </c>
       <c r="C23">
-        <v>1.758759968901483</v>
+        <v>3.703432085866647</v>
       </c>
       <c r="D23">
-        <v>0.6787910219851598</v>
+        <v>5.865403241824393</v>
       </c>
       <c r="E23">
-        <v>0.1255705639953631</v>
+        <v>5.734081248102827</v>
       </c>
       <c r="F23">
-        <v>3.420230462584391</v>
+        <v>1.970937053257805</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.451327339920464</v>
+        <v>5.723599703673837</v>
       </c>
       <c r="C24">
-        <v>1.789137837961671</v>
+        <v>3.81912244192794</v>
       </c>
       <c r="D24">
-        <v>0.6604705938183171</v>
+        <v>6.08377729369315</v>
       </c>
       <c r="E24">
-        <v>0.1132370735366868</v>
+        <v>5.946491464159553</v>
       </c>
       <c r="F24">
-        <v>3.515536569713619</v>
+        <v>2.005088826958782</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.46844707237648</v>
+        <v>5.92737103972233</v>
       </c>
       <c r="C25">
-        <v>1.819218997321355</v>
+        <v>3.93435617767831</v>
       </c>
       <c r="D25">
-        <v>0.6419801373891121</v>
+        <v>6.301977937816411</v>
       </c>
       <c r="E25">
-        <v>0.1031849650607579</v>
+        <v>6.15871809539851</v>
       </c>
       <c r="F25">
-        <v>3.609582673434601</v>
+        <v>2.038445784173466</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.48538118182437</v>
+        <v>6.131046721693247</v>
       </c>
       <c r="C26">
-        <v>1.849009235363952</v>
+        <v>4.049147504164391</v>
       </c>
       <c r="D26">
-        <v>0.6233459285933656</v>
+        <v>6.520010584810549</v>
       </c>
       <c r="E26">
-        <v>0.09511379352634014</v>
+        <v>6.370766068291981</v>
       </c>
       <c r="F26">
-        <v>3.702365096245336</v>
+        <v>2.071013431893095</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.50213002180438</v>
+        <v>6.334629696015672</v>
       </c>
       <c r="C27">
-        <v>1.878514135513614</v>
+        <v>4.163509894400975</v>
       </c>
       <c r="D27">
-        <v>0.6045956244266738</v>
+        <v>6.737880314389042</v>
       </c>
       <c r="E27">
-        <v>0.08871798546352061</v>
+        <v>6.582640033000924</v>
       </c>
       <c r="F27">
-        <v>3.79387972290463</v>
+        <v>2.10279697131474</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.518693581753902</v>
+        <v>6.538122735301666</v>
       </c>
       <c r="C28">
-        <v>1.907739035454958</v>
+        <v>4.27745622065247</v>
       </c>
       <c r="D28">
-        <v>0.5857582961068597</v>
+        <v>6.955591872027502</v>
       </c>
       <c r="E28">
-        <v>0.0837062011148155</v>
+        <v>6.794344399706114</v>
       </c>
       <c r="F28">
-        <v>3.884122053379205</v>
+        <v>2.133801322256507</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.535071494916448</v>
+        <v>6.741528460774888</v>
       </c>
       <c r="C29">
-        <v>1.936689066151557</v>
+        <v>4.390998671222115</v>
       </c>
       <c r="D29">
-        <v>0.5668644630948075</v>
+        <v>7.173149696062193</v>
       </c>
       <c r="E29">
-        <v>0.07981472955148854</v>
+        <v>7.005883334543191</v>
       </c>
       <c r="F29">
-        <v>3.973087255474234</v>
+        <v>2.164031147974072</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.551263030464647</v>
+        <v>6.944849343393805</v>
       </c>
       <c r="C30">
-        <v>1.965369141847015</v>
+        <v>4.504148926418313</v>
       </c>
       <c r="D30">
-        <v>0.5479460817411409</v>
+        <v>7.390557928821499</v>
       </c>
       <c r="E30">
-        <v>0.07681464709688234</v>
+        <v>7.217260779029545</v>
       </c>
       <c r="F30">
-        <v>4.060770214647427</v>
+        <v>2.193490902397971</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.567267086870988</v>
+        <v>7.14808771468318</v>
       </c>
       <c r="C31">
-        <v>1.993783957774772</v>
+        <v>4.616918055571518</v>
       </c>
       <c r="D31">
-        <v>0.5290365867137501</v>
+        <v>7.60782042592582</v>
       </c>
       <c r="E31">
-        <v>0.0745137250698034</v>
+        <v>7.428480458073556</v>
       </c>
       <c r="F31">
-        <v>4.147165578024545</v>
+        <v>2.222184756008568</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.583082188695685</v>
+        <v>7.35124577348252</v>
       </c>
       <c r="C32">
-        <v>2.021938008272918</v>
+        <v>4.729316666655401</v>
       </c>
       <c r="D32">
-        <v>0.5101708130254315</v>
+        <v>7.824940765556289</v>
       </c>
       <c r="E32">
-        <v>0.07275472195326499</v>
+        <v>7.63954588559053</v>
       </c>
       <c r="F32">
-        <v>4.232267787071662</v>
+        <v>2.250116770608337</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.598706468403133</v>
+        <v>7.554325589814105</v>
       </c>
       <c r="C33">
-        <v>2.049835564153554</v>
+        <v>4.841354845941104</v>
       </c>
       <c r="D33">
-        <v>0.4913849879270984</v>
+        <v>8.041922255188004</v>
       </c>
       <c r="E33">
-        <v>0.07141157357328233</v>
+        <v>7.850460376665391</v>
       </c>
       <c r="F33">
-        <v>4.316071112897837</v>
+        <v>2.277290830567567</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.614137665920341</v>
+        <v>7.757329112354259</v>
       </c>
       <c r="C34">
-        <v>2.077480695014656</v>
+        <v>4.953042250619313</v>
       </c>
       <c r="D34">
-        <v>0.4727166621892737</v>
+        <v>8.258767929044069</v>
       </c>
       <c r="E34">
-        <v>0.07038476197077397</v>
+        <v>8.061227045679532</v>
       </c>
       <c r="F34">
-        <v>4.398569687031511</v>
+        <v>2.303710582454807</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.629373103291337</v>
+        <v>7.96025816856466</v>
       </c>
       <c r="C35">
-        <v>2.104877249025066</v>
+        <v>5.064388090837944</v>
       </c>
       <c r="D35">
-        <v>0.4542045672605228</v>
+        <v>8.475480559707014</v>
       </c>
       <c r="E35">
-        <v>0.06959661555280384</v>
+        <v>8.271848816200079</v>
       </c>
       <c r="F35">
-        <v>4.479757521325211</v>
+        <v>2.329379554607887</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.644409678241593</v>
+        <v>8.163114468979881</v>
       </c>
       <c r="C36">
-        <v>2.132028865313952</v>
+        <v>5.175401186157679</v>
       </c>
       <c r="D36">
-        <v>0.4358884565600042</v>
+        <v>8.692062649569241</v>
       </c>
       <c r="E36">
-        <v>0.06898696769767262</v>
+        <v>8.482328421647718</v>
       </c>
       <c r="F36">
-        <v>4.559628527500395</v>
+        <v>2.35430109975787</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.659243844201148</v>
+        <v>8.365899610595463</v>
       </c>
       <c r="C37">
-        <v>2.158938959184116</v>
+        <v>5.286089956616531</v>
       </c>
       <c r="D37">
-        <v>0.4178089119071861</v>
+        <v>8.908516432848181</v>
       </c>
       <c r="E37">
-        <v>0.06850944440236606</v>
+        <v>8.692668406321065</v>
       </c>
       <c r="F37">
-        <v>4.638176533075312</v>
+        <v>2.378478444863486</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.673871587678137</v>
+        <v>8.568615074720753</v>
       </c>
       <c r="C38">
-        <v>2.185610726454341</v>
+        <v>5.396462472514547</v>
       </c>
       <c r="D38">
-        <v>0.4000071041460407</v>
+        <v>9.124843874836792</v>
       </c>
       <c r="E38">
-        <v>0.06812839141484167</v>
+        <v>8.902871131469206</v>
       </c>
       <c r="F38">
-        <v>4.715395295225832</v>
+        <v>2.401914695635663</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.688288416015937</v>
+        <v>8.771262232596905</v>
       </c>
       <c r="C39">
-        <v>2.212047126561169</v>
+        <v>5.506526436376252</v>
       </c>
       <c r="D39">
-        <v>0.382524472692882</v>
+        <v>9.3410466577216</v>
       </c>
       <c r="E39">
-        <v>0.06781636120368424</v>
+        <v>9.11293876962068</v>
       </c>
       <c r="F39">
-        <v>4.791278503519833</v>
+        <v>2.424612847444437</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.702489320821727</v>
+        <v>8.97384234056419</v>
       </c>
       <c r="C40">
-        <v>2.238250883792903</v>
+        <v>5.616289233497045</v>
       </c>
       <c r="D40">
-        <v>0.3654023331846622</v>
+        <v>9.557126178665403</v>
       </c>
       <c r="E40">
-        <v>0.06755215244501447</v>
+        <v>9.322873308418606</v>
       </c>
       <c r="F40">
-        <v>4.865819785624555</v>
+        <v>2.446575801184613</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.716468760787143</v>
+        <v>9.176356542714148</v>
       </c>
       <c r="C41">
-        <v>2.264224464567129</v>
+        <v>5.725757909768432</v>
       </c>
       <c r="D41">
-        <v>0.3486814237647859</v>
+        <v>9.773083532889087</v>
       </c>
       <c r="E41">
-        <v>0.06731926353133975</v>
+        <v>9.532676545522706</v>
       </c>
       <c r="F41">
-        <v>4.939012709227516</v>
+        <v>2.467806352332397</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.730220625669505</v>
+        <v>9.378805866711458</v>
       </c>
       <c r="C42">
-        <v>2.289970074601659</v>
+        <v>5.834939215377624</v>
       </c>
       <c r="D42">
-        <v>0.332401387074043</v>
+        <v>9.988919494287837</v>
       </c>
       <c r="E42">
-        <v>0.0671047163359853</v>
+        <v>9.742350082449169</v>
       </c>
       <c r="F42">
-        <v>5.010850775623978</v>
+        <v>2.488307219023809</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.743738195804347</v>
+        <v>9.581191219255492</v>
       </c>
       <c r="C43">
-        <v>2.315489632532272</v>
+        <v>5.943839586691403</v>
       </c>
       <c r="D43">
-        <v>0.3166001883515666</v>
+        <v>10.20463450644541</v>
       </c>
       <c r="E43">
-        <v>0.06689812429689083</v>
+        <v>9.951895325648843</v>
       </c>
       <c r="F43">
-        <v>5.081327412193261</v>
+        <v>2.508081025967404</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.757014120338213</v>
+        <v>9.783513386104644</v>
       </c>
       <c r="C44">
-        <v>2.340784757371721</v>
+        <v>6.05246517849711</v>
       </c>
       <c r="D44">
-        <v>0.3013134935960916</v>
+        <v>10.42022864415011</v>
       </c>
       <c r="E44">
-        <v>0.06669101429124862</v>
+        <v>10.16131346822276</v>
       </c>
       <c r="F44">
-        <v>5.150435961323359</v>
+        <v>2.527130328156631</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.770040348828463</v>
+        <v>9.985773017818461</v>
       </c>
       <c r="C45">
-        <v>2.365856742019861</v>
+        <v>6.160821848864837</v>
       </c>
       <c r="D45">
-        <v>0.2865739822277928</v>
+        <v>10.63570159184437</v>
       </c>
       <c r="E45">
-        <v>0.06647629987045522</v>
+        <v>10.37060549064617</v>
       </c>
       <c r="F45">
-        <v>5.218169668609186</v>
+        <v>2.54545760845293</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.782808105272088</v>
+        <v>10.18797063132394</v>
       </c>
       <c r="C46">
-        <v>2.390706523451309</v>
+        <v>6.268915182944646</v>
       </c>
       <c r="D46">
-        <v>0.2724106601860625</v>
+        <v>10.85105261034256</v>
       </c>
       <c r="E46">
-        <v>0.06624788453267549</v>
+        <v>10.57977213985205</v>
       </c>
       <c r="F46">
-        <v>5.284521659404643</v>
+        <v>2.563065291164315</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.795307816916148</v>
+        <v>10.39010659052862</v>
       </c>
       <c r="C47">
-        <v>2.415334659881792</v>
+        <v>6.376750474204274</v>
       </c>
       <c r="D47">
-        <v>0.2588481809720889</v>
+        <v>11.06628047915375</v>
       </c>
       <c r="E47">
-        <v>0.06600035985960229</v>
+        <v>10.78881391724814</v>
       </c>
       <c r="F47">
-        <v>5.349484918396686</v>
+        <v>2.579955744383794</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.80752905253296</v>
+        <v>10.59218110111906</v>
       </c>
       <c r="C48">
-        <v>2.439741272980565</v>
+        <v>6.4843327482593</v>
       </c>
       <c r="D48">
-        <v>0.2459062109687361</v>
+        <v>11.28138346642009</v>
       </c>
       <c r="E48">
-        <v>0.06572879034030758</v>
+        <v>10.99773106418363</v>
       </c>
       <c r="F48">
-        <v>5.413052265323882</v>
+        <v>2.596131288386843</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.819460471835462</v>
+        <v>10.79419419305573</v>
       </c>
       <c r="C49">
-        <v>2.463926035470596</v>
+        <v>6.591666729930444</v>
       </c>
       <c r="D49">
-        <v>0.2335988748130431</v>
+        <v>11.49635924934615</v>
       </c>
       <c r="E49">
-        <v>0.06542855340993535</v>
+        <v>11.20652352679528</v>
       </c>
       <c r="F49">
-        <v>5.475216322851246</v>
+        <v>2.611594201490534</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.831089711070463</v>
+        <v>10.99614569562268</v>
       </c>
       <c r="C50">
-        <v>2.487888067681129</v>
+        <v>6.698756849306766</v>
       </c>
       <c r="D50">
-        <v>0.2219343243990124</v>
+        <v>11.71120483497121</v>
       </c>
       <c r="E50">
-        <v>0.0650952316722691</v>
+        <v>11.4151909477911</v>
       </c>
       <c r="F50">
-        <v>5.535969482116188</v>
+        <v>2.626346721711413</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.842403352386564</v>
+        <v>11.19803523179383</v>
       </c>
       <c r="C51">
-        <v>2.511625948876499</v>
+        <v>6.805607227059009</v>
       </c>
       <c r="D51">
-        <v>0.2109143953712891</v>
+        <v>11.92591650762366</v>
       </c>
       <c r="E51">
-        <v>0.06472452801458302</v>
+        <v>11.623732612325</v>
       </c>
       <c r="F51">
-        <v>5.595303864587233</v>
+        <v>2.640391055446447</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.853386858688175</v>
+        <v>11.39986216569353</v>
       </c>
       <c r="C52">
-        <v>2.535137612412022</v>
+        <v>6.912221656320798</v>
       </c>
       <c r="D52">
-        <v>0.2005346288935212</v>
+        <v>12.14048966859042</v>
       </c>
       <c r="E52">
-        <v>0.06431222704322993</v>
+        <v>11.83214742408611</v>
       </c>
       <c r="F52">
-        <v>5.653211745808084</v>
+        <v>2.653729378890948</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.377109555489942</v>
+        <v>11.60162559651894</v>
       </c>
       <c r="C53">
-        <v>3.059973892295561</v>
+        <v>7.01860357410052</v>
       </c>
       <c r="D53">
-        <v>0.565294885330196</v>
+        <v>12.35491875383639</v>
       </c>
       <c r="E53">
-        <v>0.2743269486306698</v>
+        <v>12.04043385455976</v>
       </c>
       <c r="F53">
-        <v>6.540774677802572</v>
+        <v>2.666363844915395</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.895618121458263</v>
+        <v>11.80332429215423</v>
       </c>
       <c r="C54">
-        <v>3.580826522431844</v>
+        <v>7.124756036249128</v>
       </c>
       <c r="D54">
-        <v>0.9106066414059431</v>
+        <v>12.56919706666027</v>
       </c>
       <c r="E54">
-        <v>0.4632770829596936</v>
+        <v>12.24858986588185</v>
       </c>
       <c r="F54">
-        <v>7.413254717138343</v>
+        <v>2.678296586846511</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.409281261683544</v>
+        <v>12.00495665521704</v>
       </c>
       <c r="C55">
-        <v>4.098091711113748</v>
+        <v>7.230681662869746</v>
       </c>
       <c r="D55">
-        <v>1.244090804124181</v>
+        <v>12.78331655220494</v>
       </c>
       <c r="E55">
-        <v>0.6419603300020181</v>
+        <v>12.4566128861012</v>
       </c>
       <c r="F55">
-        <v>8.270784030035777</v>
+        <v>2.689529723319723</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.918226902408087</v>
+        <v>12.20652066400833</v>
       </c>
       <c r="C56">
-        <v>4.612054771922732</v>
+        <v>7.336382577167372</v>
       </c>
       <c r="D56">
-        <v>1.568069891955453</v>
+        <v>12.99726766838496</v>
       </c>
       <c r="E56">
-        <v>0.8136352101934965</v>
+        <v>12.66449966360213</v>
       </c>
       <c r="F56">
-        <v>9.113426038789354</v>
+        <v>2.700065362696563</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.422441781696539</v>
+        <v>12.40801376152665</v>
       </c>
       <c r="C57">
-        <v>5.122914144515502</v>
+        <v>7.441860342138944</v>
       </c>
       <c r="D57">
-        <v>1.883553486716461</v>
+        <v>13.21103900664277</v>
       </c>
       <c r="E57">
-        <v>0.9796701756775028</v>
+        <v>12.87224624054859</v>
       </c>
       <c r="F57">
-        <v>9.941193176579226</v>
+        <v>2.709905606721878</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.921817483720036</v>
+        <v>12.60943284411918</v>
       </c>
       <c r="C58">
-        <v>5.63079831043154</v>
+        <v>7.547115853092278</v>
       </c>
       <c r="D58">
-        <v>2.191052748373457</v>
+        <v>13.42461700404553</v>
       </c>
       <c r="E58">
-        <v>1.140703404025202</v>
+        <v>13.07984774730811</v>
       </c>
       <c r="F58">
-        <v>10.75405755390148</v>
+        <v>2.719052555131902</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.416174302692606</v>
+        <v>12.81077405170312</v>
       </c>
       <c r="C59">
-        <v>6.135775190952027</v>
+        <v>7.652149200927338</v>
       </c>
       <c r="D59">
-        <v>2.490841559351462</v>
+        <v>13.63798561523125</v>
       </c>
       <c r="E59">
-        <v>1.297022426041305</v>
+        <v>13.28729828321284</v>
       </c>
       <c r="F59">
-        <v>11.55195762875701</v>
+        <v>2.727508308586545</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.905273528582769</v>
+        <v>13.01203266024806</v>
       </c>
       <c r="C60">
-        <v>6.637858636570868</v>
+        <v>7.756959553607519</v>
       </c>
       <c r="D60">
-        <v>2.783062154996014</v>
+        <v>13.85112562926526</v>
       </c>
       <c r="E60">
-        <v>1.448721737087558</v>
+        <v>13.49459072187566</v>
       </c>
       <c r="F60">
-        <v>12.33480229489514</v>
+        <v>2.735274972783837</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6.388823381977062</v>
+        <v>13.21320289753382</v>
       </c>
       <c r="C61">
-        <v>7.13701125140266</v>
+        <v>7.861544870220796</v>
       </c>
       <c r="D61">
-        <v>3.067773692357772</v>
+        <v>14.06401440449258</v>
       </c>
       <c r="E61">
-        <v>1.595779070492774</v>
+        <v>13.7017164801152</v>
       </c>
       <c r="F61">
-        <v>13.1024745762667</v>
+        <v>2.742354662027049</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6.866481425388312</v>
+        <v>13.41427771995938</v>
       </c>
       <c r="C62">
-        <v>7.633144207187418</v>
+        <v>7.965901655992838</v>
       </c>
       <c r="D62">
-        <v>3.34497732383856</v>
+        <v>14.2766247328078</v>
       </c>
       <c r="E62">
-        <v>1.738096598426551</v>
+        <v>13.90866522789015</v>
       </c>
       <c r="F62">
-        <v>13.85483326930664</v>
+        <v>2.748749502229118</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.337854048718884</v>
+        <v>13.61524851756556</v>
       </c>
       <c r="C63">
-        <v>8.126115461416674</v>
+        <v>8.070024611759186</v>
       </c>
       <c r="D63">
-        <v>3.61462942843667</v>
+        <v>14.48892410990308</v>
       </c>
       <c r="E63">
-        <v>1.875525648024086</v>
+        <v>14.11542450119101</v>
       </c>
       <c r="F63">
-        <v>14.59171355597067</v>
+        <v>2.754461634856748</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7.802494528566973</v>
+        <v>13.81610473638327</v>
       </c>
       <c r="C64">
-        <v>8.615725542281755</v>
+        <v>8.173906164996806</v>
       </c>
       <c r="D64">
-        <v>3.876649025213617</v>
+        <v>14.7008736318352</v>
       </c>
       <c r="E64">
-        <v>2.007882753299812</v>
+        <v>14.32197923593043</v>
       </c>
       <c r="F64">
-        <v>15.31292741223673</v>
+        <v>2.75949321919816</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>8.259899960649113</v>
+        <v>14.01683338260387</v>
       </c>
       <c r="C65">
-        <v>9.10171108313598</v>
+        <v>8.277535853363828</v>
       </c>
       <c r="D65">
-        <v>4.130921587329015</v>
+        <v>14.91242664145594</v>
       </c>
       <c r="E65">
-        <v>2.134961025376713</v>
+        <v>14.52831116670756</v>
       </c>
       <c r="F65">
-        <v>16.01826383767879</v>
+        <v>2.763846437613965</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.709507045573021</v>
+        <v>14.21741844058215</v>
       </c>
       <c r="C66">
-        <v>9.583736080815887</v>
+        <v>8.380899529760338</v>
       </c>
       <c r="D66">
-        <v>4.377300800152244</v>
+        <v>15.12352703355638</v>
       </c>
       <c r="E66">
-        <v>2.256538730200224</v>
+        <v>14.73439808056794</v>
       </c>
       <c r="F66">
-        <v>16.70748856815999</v>
+        <v>2.767523495496269</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>9.150687247866683</v>
+        <v>14.41784001793641</v>
       </c>
       <c r="C67">
-        <v>10.06138053074784</v>
+        <v>8.48397833752068</v>
       </c>
       <c r="D67">
-        <v>4.615609418577191</v>
+        <v>15.33410725438295</v>
       </c>
       <c r="E67">
-        <v>2.372386535784828</v>
+        <v>14.94021285797251</v>
       </c>
       <c r="F67">
-        <v>17.38034353683369</v>
+        <v>2.770526626349463</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>9.582741693588639</v>
+        <v>14.61807329754104</v>
       </c>
       <c r="C68">
-        <v>10.53412620018018</v>
+        <v>8.586747385113949</v>
       </c>
       <c r="D68">
-        <v>4.845639347140671</v>
+        <v>15.54408573756281</v>
       </c>
       <c r="E68">
-        <v>2.482273755276347</v>
+        <v>15.14572218978839</v>
       </c>
       <c r="F68">
-        <v>18.03654630928652</v>
+        <v>2.772858096826524</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>10.00489620680608</v>
+        <v>14.81808713249152</v>
       </c>
       <c r="C69">
-        <v>11.00133925245605</v>
+        <v>8.689174036940164</v>
       </c>
       <c r="D69">
-        <v>5.067151593353095</v>
+        <v>15.75336394875923</v>
       </c>
       <c r="E69">
-        <v>2.585974021886556</v>
+        <v>15.35088499417672</v>
       </c>
       <c r="F69">
-        <v>18.67578950458203</v>
+        <v>2.774520200712353</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>10.41629685660026</v>
+        <v>15.01784234683046</v>
       </c>
       <c r="C70">
-        <v>11.46224952174194</v>
+        <v>8.79121572535105</v>
       </c>
       <c r="D70">
-        <v>5.279876656627843</v>
+        <v>15.96182281957714</v>
       </c>
       <c r="E70">
-        <v>2.68327061629659</v>
+        <v>15.55565039306413</v>
       </c>
       <c r="F70">
-        <v>19.29774023826465</v>
+        <v>2.775515273800602</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>10.81600680562484</v>
+        <v>15.21728893838429</v>
       </c>
       <c r="C71">
-        <v>11.91592646766339</v>
+        <v>8.89281717536773</v>
       </c>
       <c r="D71">
-        <v>5.483515650433575</v>
+        <v>16.16931853367156</v>
       </c>
       <c r="E71">
-        <v>2.773961461851176</v>
+        <v>15.75995470052939</v>
       </c>
       <c r="F71">
-        <v>19.90203982185731</v>
+        <v>2.77584568817527</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>11.20300546058043</v>
+        <v>15.41636295792698</v>
       </c>
       <c r="C72">
-        <v>12.36125225936313</v>
+        <v>8.993906991993882</v>
       </c>
       <c r="D72">
-        <v>5.677743502958452</v>
+        <v>16.37567763630392</v>
       </c>
       <c r="E72">
-        <v>2.857863831212939</v>
+        <v>15.96371812222406</v>
       </c>
       <c r="F72">
-        <v>20.48830372610326</v>
+        <v>2.775513853257147</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>11.5761913372871</v>
+        <v>15.61498222212722</v>
       </c>
       <c r="C73">
-        <v>12.79689313104905</v>
+        <v>9.094393209156602</v>
       </c>
       <c r="D73">
-        <v>5.862214711830219</v>
+        <v>16.58069144972098</v>
       </c>
       <c r="E73">
-        <v>2.934818730627744</v>
+        <v>16.16684026658438</v>
       </c>
       <c r="F73">
-        <v>21.0561221141153</v>
+        <v>2.774522226480467</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>11.93439023483818</v>
+        <v>15.8130404260713</v>
       </c>
       <c r="C74">
-        <v>13.22127146397932</v>
+        <v>9.194158008954796</v>
       </c>
       <c r="D74">
-        <v>6.036572696541199</v>
+        <v>16.7841101986659</v>
       </c>
       <c r="E74">
-        <v>3.004694809569473</v>
+        <v>16.36919421965437</v>
       </c>
       <c r="F74">
-        <v>21.60506114560177</v>
+        <v>2.772873307080973</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>12.27637021598994</v>
+        <v>16.0103993278329</v>
       </c>
       <c r="C75">
-        <v>13.63254264912928</v>
+        <v>9.293051606604452</v>
       </c>
       <c r="D75">
-        <v>6.200463955500185</v>
+        <v>16.98563591227181</v>
       </c>
       <c r="E75">
-        <v>3.067391760532108</v>
+        <v>16.57061919305012</v>
       </c>
       <c r="F75">
-        <v>22.1346649771926</v>
+        <v>2.770569642335472</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>12.60086714271359</v>
+        <v>16.20687853409898</v>
       </c>
       <c r="C76">
-        <v>14.02858311565005</v>
+        <v>9.390884887878586</v>
       </c>
       <c r="D76">
-        <v>6.353557504153599</v>
+        <v>17.18491613680458</v>
       </c>
       <c r="E76">
-        <v>3.122843113270453</v>
+        <v>16.77091139337407</v>
       </c>
       <c r="F76">
-        <v>22.64446035392039</v>
+        <v>2.767613830826775</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>12.90661991202216</v>
+        <v>16.40224220649481</v>
       </c>
       <c r="C77">
-        <v>14.40699872358352</v>
+        <v>9.487421199106926</v>
       </c>
       <c r="D77">
-        <v>6.495568718629987</v>
+        <v>17.38153782784839</v>
       </c>
       <c r="E77">
-        <v>3.171018351351686</v>
+        <v>16.96981296234155</v>
       </c>
       <c r="F77">
-        <v>23.13396219979896</v>
+        <v>2.764008519541794</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>13.19241734465195</v>
+        <v>16.59618207470411</v>
       </c>
       <c r="C78">
-        <v>14.76516480988641</v>
+        <v>9.582367673134828</v>
       </c>
       <c r="D78">
-        <v>6.626285559920572</v>
+        <v>17.57502217590044</v>
       </c>
       <c r="E78">
-        <v>3.211924195082884</v>
+        <v>17.16699901276575</v>
       </c>
       <c r="F78">
-        <v>23.60268175377739</v>
+        <v>2.759756412117871</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>13.45715727235134</v>
+        <v>16.78829656278209</v>
       </c>
       <c r="C79">
-        <v>15.1003096069302</v>
+        <v>9.67536665893631</v>
       </c>
       <c r="D79">
-        <v>6.745593169947948</v>
+        <v>17.76482142575297</v>
       </c>
       <c r="E79">
-        <v>3.245605071800939</v>
+        <v>17.36206323462379</v>
       </c>
       <c r="F79">
-        <v>24.05013797789159</v>
+        <v>2.754860266540168</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>13.6999127538612</v>
+        <v>16.97806579562009</v>
       </c>
       <c r="C80">
-        <v>15.40965094730602</v>
+        <v>9.765988314067219</v>
       </c>
       <c r="D80">
-        <v>6.853491624292212</v>
+        <v>17.95031897363351</v>
       </c>
       <c r="E80">
-        <v>3.272142734515958</v>
+        <v>17.55450273536348</v>
       </c>
       <c r="F80">
-        <v>24.47587255623455</v>
+        <v>2.749322896590473</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>13.92000038630928</v>
+        <v>17.16482327649049</v>
       </c>
       <c r="C81">
-        <v>15.69058626349858</v>
+        <v>9.853725875826628</v>
       </c>
       <c r="D81">
-        <v>6.950103273143872</v>
+        <v>18.13083370791001</v>
       </c>
       <c r="E81">
-        <v>3.291655059043718</v>
+        <v>17.74370428192981</v>
       </c>
       <c r="F81">
-        <v>24.87946858495689</v>
+        <v>2.743147177807096</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.11704224887988</v>
+        <v>17.34772899425713</v>
       </c>
       <c r="C82">
-        <v>15.94092243775303</v>
+        <v>9.937995834075684</v>
       </c>
       <c r="D82">
-        <v>7.035668061102732</v>
+        <v>18.30562987155905</v>
       </c>
       <c r="E82">
-        <v>3.304294074871835</v>
+        <v>17.9289338249309</v>
       </c>
       <c r="F82">
-        <v>25.26057282329348</v>
+        <v>2.736336044028517</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>14.29101187311435</v>
+        <v>17.52574727502433</v>
       </c>
       <c r="C83">
-        <v>16.15911463761634</v>
+        <v>10.01814485578854</v>
       </c>
       <c r="D83">
-        <v>7.110528191177698</v>
+        <v>18.47393348805921</v>
       </c>
       <c r="E83">
-        <v>3.310243276923632</v>
+        <v>18.10933263002828</v>
       </c>
       <c r="F83">
-        <v>25.61892080294314</v>
+        <v>2.728892492309016</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>14.44225593149981</v>
+        <v>17.69763822517735</v>
       </c>
       <c r="C84">
-        <v>16.34446847789001</v>
+        <v>10.093466345026</v>
       </c>
       <c r="D84">
-        <v>7.175106318453202</v>
+        <v>18.63495570723284</v>
       </c>
       <c r="E84">
-        <v>3.309714383306647</v>
+        <v>18.28392411758915</v>
       </c>
       <c r="F84">
-        <v>25.95436313909108</v>
+        <v>2.720819584673256</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>14.57148576858859</v>
+        <v>17.86197522743735</v>
       </c>
       <c r="C85">
-        <v>16.49725561046217</v>
+        <v>10.1632277201138</v>
       </c>
       <c r="D85">
-        <v>7.229880645960856</v>
+        <v>18.78792275525972</v>
       </c>
       <c r="E85">
-        <v>3.302943587165294</v>
+        <v>18.45163486617855</v>
       </c>
       <c r="F85">
-        <v>26.2668895199566</v>
+        <v>2.71212044556815</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>14.52619649147683</v>
+        <v>18.01719908106524</v>
       </c>
       <c r="C86">
-        <v>16.44730640515842</v>
+        <v>10.22670948237885</v>
       </c>
       <c r="D86">
-        <v>7.141287161985486</v>
+        <v>18.93211085981644</v>
       </c>
       <c r="E86">
-        <v>3.217393671948666</v>
+        <v>18.61133316462767</v>
       </c>
       <c r="F86">
-        <v>26.23775649424367</v>
+        <v>2.702798269183094</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>14.47896809545443</v>
+        <v>18.16171935707928</v>
       </c>
       <c r="C87">
-        <v>16.39450054188083</v>
+        <v>10.28325138672514</v>
       </c>
       <c r="D87">
-        <v>7.051929190269918</v>
+        <v>19.06688348137779</v>
       </c>
       <c r="E87">
-        <v>3.131434586152033</v>
+        <v>18.76188536699979</v>
       </c>
       <c r="F87">
-        <v>26.2064336872259</v>
+        <v>2.692856316779304</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>14.4299508171409</v>
+        <v>18.294055165271</v>
       </c>
       <c r="C88">
-        <v>16.33911078249029</v>
+        <v>10.33230285972259</v>
       </c>
       <c r="D88">
-        <v>6.961859812725367</v>
+        <v>19.1917275217182</v>
       </c>
       <c r="E88">
-        <v>3.045100767856485</v>
+        <v>18.90222713947469</v>
       </c>
       <c r="F88">
-        <v>26.17297043058353</v>
+        <v>2.682297918199001</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>14.37930602466361</v>
+        <v>18.41300308971166</v>
       </c>
       <c r="C89">
-        <v>16.28144542925184</v>
+        <v>10.37346964687952</v>
       </c>
       <c r="D89">
-        <v>6.871131206496574</v>
+        <v>19.30628395984466</v>
       </c>
       <c r="E89">
-        <v>2.958428565614591</v>
+        <v>19.03144263438154</v>
       </c>
       <c r="F89">
-        <v>26.13743368170631</v>
+        <v>2.671126476069341</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>14.3271989689582</v>
+        <v>18.51779336275471</v>
       </c>
       <c r="C90">
-        <v>16.22182454425373</v>
+        <v>10.40654816083294</v>
       </c>
       <c r="D90">
-        <v>6.779793738186027</v>
+        <v>19.41036975422992</v>
       </c>
       <c r="E90">
-        <v>2.871455421165794</v>
+        <v>19.14883986174443</v>
       </c>
       <c r="F90">
-        <v>26.09990548371013</v>
+        <v>2.659345463569483</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>14.27379246509907</v>
+        <v>18.60819531348393</v>
       </c>
       <c r="C91">
-        <v>16.16055933401811</v>
+        <v>10.43154181360154</v>
       </c>
       <c r="D91">
-        <v>6.687895506721392</v>
+        <v>19.50398586059484</v>
       </c>
       <c r="E91">
-        <v>2.784219592692499</v>
+        <v>19.25401025829582</v>
       </c>
       <c r="F91">
-        <v>26.06048019844243</v>
+        <v>2.646958428073749</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>14.21924205560904</v>
+        <v>18.68454168616342</v>
       </c>
       <c r="C92">
-        <v>16.09793716961139</v>
+        <v>10.44865625653541</v>
       </c>
       <c r="D92">
-        <v>6.595482095106542</v>
+        <v>19.587314296631</v>
       </c>
       <c r="E92">
-        <v>2.69675990602022</v>
+        <v>19.34686088453174</v>
       </c>
       <c r="F92">
-        <v>26.01926141848896</v>
+        <v>2.633968992109994</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14.16369272501568</v>
+        <v>18.74766638380446</v>
       </c>
       <c r="C93">
-        <v>16.03421361242827</v>
+        <v>10.45827498907468</v>
       </c>
       <c r="D93">
-        <v>6.502596470140316</v>
+        <v>19.66070291493934</v>
       </c>
       <c r="E93">
-        <v>2.609115571766283</v>
+        <v>19.4276145087776</v>
       </c>
       <c r="F93">
-        <v>25.97635856695022</v>
+        <v>2.620380852842439</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>14.10727694887376</v>
+        <v>18.79877717713767</v>
       </c>
       <c r="C94">
-        <v>15.96960881105235</v>
+        <v>10.46092093952401</v>
       </c>
       <c r="D94">
-        <v>6.409278969372763</v>
+        <v>19.72463902229268</v>
       </c>
       <c r="E94">
-        <v>2.521326055168541</v>
+        <v>19.49677802714815</v>
       </c>
       <c r="F94">
-        <v>25.93188393852283</v>
+        <v>2.606197785936522</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>14.05011368233981</v>
+        <v>18.83930012588658</v>
       </c>
       <c r="C95">
-        <v>15.90430811836195</v>
+        <v>10.45721113932997</v>
       </c>
       <c r="D95">
-        <v>6.315567355426154</v>
+        <v>19.77971791498542</v>
       </c>
       <c r="E95">
-        <v>2.433431014676269</v>
+        <v>19.55508709003819</v>
       </c>
       <c r="F95">
-        <v>25.88594993022092</v>
+        <v>2.591423644931417</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>13.99230855401679</v>
+        <v>18.87073177775494</v>
       </c>
       <c r="C96">
-        <v>15.83846487199456</v>
+        <v>10.44781161636853</v>
       </c>
       <c r="D96">
-        <v>6.221496930523167</v>
+        <v>19.82660891811716</v>
       </c>
       <c r="E96">
-        <v>2.345470285388218</v>
+        <v>19.60343808942973</v>
       </c>
       <c r="F96">
-        <v>25.8386668015847</v>
+        <v>2.576062362662442</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>13.93395436663732</v>
+        <v>18.89452274769712</v>
       </c>
       <c r="C97">
-        <v>15.77220418888192</v>
+        <v>10.43339788947166</v>
       </c>
       <c r="D97">
-        <v>6.127100663530288</v>
+        <v>19.86602231353161</v>
       </c>
       <c r="E97">
-        <v>2.257483927704946</v>
+        <v>19.64281825358787</v>
       </c>
       <c r="F97">
-        <v>25.790141013562</v>
+        <v>2.560117953386174</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>13.87513200909024</v>
+        <v>18.91200113643329</v>
       </c>
       <c r="C98">
-        <v>15.70562709638944</v>
+        <v>10.41462403565779</v>
       </c>
       <c r="D98">
-        <v>6.032409326499415</v>
+        <v>19.89868010232931</v>
       </c>
       <c r="E98">
-        <v>2.169512351426282</v>
+        <v>19.67424327262395</v>
       </c>
       <c r="F98">
-        <v>25.74047406777562</v>
+        <v>2.543594513182963</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>13.81591152012242</v>
+        <v>18.92433274732363</v>
       </c>
       <c r="C99">
-        <v>15.63881462160648</v>
+        <v>10.39210121217909</v>
       </c>
       <c r="D99">
-        <v>5.937451637670694</v>
+        <v>19.92529191337202</v>
       </c>
       <c r="E99">
-        <v>2.081596500211953</v>
+        <v>19.69870718463483</v>
       </c>
       <c r="F99">
-        <v>25.68976172897976</v>
+        <v>2.526496221530171</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>13.75635332194304</v>
+        <v>18.93250941462466</v>
       </c>
       <c r="C100">
-        <v>15.57183142927171</v>
+        <v>10.36638477913288</v>
       </c>
       <c r="D100">
-        <v>5.842254408768834</v>
+        <v>19.94653672036311</v>
       </c>
       <c r="E100">
-        <v>1.993778102762045</v>
+        <v>19.71714681152842</v>
       </c>
       <c r="F100">
-        <v>25.63809358369872</v>
+        <v>2.508827342598333</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.69650937062182</v>
+        <v>18.93735563394897</v>
       </c>
       <c r="C101">
-        <v>15.50472895015506</v>
+        <v>10.33796847077347</v>
       </c>
       <c r="D101">
-        <v>5.746842688794704</v>
+        <v>19.96305010347069</v>
       </c>
       <c r="E101">
-        <v>1.906099993232038</v>
+        <v>19.73041949130808</v>
       </c>
       <c r="F101">
-        <v>25.58555288602189</v>
+        <v>2.490592227185284</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>13.63642419991218</v>
+        <v>18.9395452307714</v>
       </c>
       <c r="C102">
-        <v>15.43754803373516</v>
+        <v>10.30728375238149</v>
       </c>
       <c r="D102">
-        <v>5.651239901355822</v>
+        <v>19.9754165299113</v>
       </c>
       <c r="E102">
-        <v>1.818606515833774</v>
+        <v>19.73929198152018</v>
       </c>
       <c r="F102">
-        <v>25.53221662071592</v>
+        <v>2.471795312765502</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.57613591674595</v>
+        <v>18.93962215949268</v>
       </c>
       <c r="C103">
-        <v>15.37032110223368</v>
+        <v>10.27470263269888</v>
       </c>
       <c r="D103">
-        <v>5.555467974484213</v>
+        <v>19.98416568227565</v>
       </c>
       <c r="E103">
-        <v>1.731344020493624</v>
+        <v>19.74443795687454</v>
       </c>
       <c r="F103">
-        <v>25.47815568045771</v>
+        <v>2.452441126499898</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13.51567716112469</v>
+        <v>18.93802171689363</v>
       </c>
       <c r="C104">
-        <v>15.30307390454796</v>
+        <v>10.2405425249074</v>
       </c>
       <c r="D104">
-        <v>5.459547459410454</v>
+        <v>19.98977186490424</v>
       </c>
       <c r="E104">
-        <v>1.64436146343743</v>
+        <v>19.74644102367254</v>
       </c>
       <c r="F104">
-        <v>25.42343514097886</v>
+        <v>2.432534286550278</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>13.45507585098472</v>
+        <v>18.93509023110701</v>
       </c>
       <c r="C105">
-        <v>15.23582690962318</v>
+        <v>10.20507209725002</v>
       </c>
       <c r="D105">
-        <v>5.363497645938056</v>
+        <v>19.99265568617874</v>
       </c>
       <c r="E105">
-        <v>1.557711129430337</v>
+        <v>19.74580133778246</v>
       </c>
       <c r="F105">
-        <v>25.36811459864577</v>
+        <v>2.412079501884911</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>13.39435585398004</v>
+        <v>18.93110224649301</v>
       </c>
       <c r="C106">
-        <v>15.16859642417326</v>
+        <v>10.16851734302985</v>
       </c>
       <c r="D106">
-        <v>5.267336671253503</v>
+        <v>19.99318718245941</v>
       </c>
       <c r="E106">
-        <v>1.471449508054017</v>
+        <v>19.74294400776533</v>
       </c>
       <c r="F106">
-        <v>25.31224853686283</v>
+        <v>2.391081578196701</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.33353758841684</v>
+        <v>18.92627490604466</v>
       </c>
       <c r="C107">
-        <v>15.10139546695716</v>
+        <v>10.13106752460549</v>
       </c>
       <c r="D107">
-        <v>5.17108162109801</v>
+        <v>19.99168982469632</v>
       </c>
       <c r="E107">
-        <v>1.385638359117483</v>
+        <v>19.73822808266044</v>
       </c>
       <c r="F107">
-        <v>25.25588669967031</v>
+        <v>2.369545415090038</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>13.27263855056525</v>
+        <v>18.92077973718947</v>
       </c>
       <c r="C108">
-        <v>15.03423446451771</v>
+        <v>10.09288064942623</v>
       </c>
       <c r="D108">
-        <v>5.074748623947151</v>
+        <v>19.98844491888987</v>
       </c>
       <c r="E108">
-        <v>1.300346013452551</v>
+        <v>19.73195541489652</v>
       </c>
       <c r="F108">
-        <v>25.19907446471528</v>
+        <v>2.347476010225149</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>13.21167375246721</v>
+        <v>18.91475227927977</v>
       </c>
       <c r="C109">
-        <v>14.96712179428319</v>
+        <v>10.05408834776154</v>
       </c>
       <c r="D109">
-        <v>4.978352938435441</v>
+        <v>19.98369607676917</v>
       </c>
       <c r="E109">
-        <v>1.215648972699504</v>
+        <v>19.72437896007155</v>
       </c>
       <c r="F109">
-        <v>25.1418532053431</v>
+        <v>2.324878464999053</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>13.15065608562696</v>
+        <v>18.90829972597526</v>
       </c>
       <c r="C110">
-        <v>14.90006421433408</v>
+        <v>10.01480009540476</v>
       </c>
       <c r="D110">
-        <v>4.881909036006419</v>
+        <v>19.97765362397938</v>
       </c>
       <c r="E110">
-        <v>1.131633894711688</v>
+        <v>19.71571025693896</v>
       </c>
       <c r="F110">
-        <v>25.08426063369787</v>
+        <v>2.30175797905477</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>13.08959663291422</v>
+        <v>18.90150692233309</v>
       </c>
       <c r="C111">
-        <v>14.83306719926922</v>
+        <v>9.975106880839393</v>
       </c>
       <c r="D111">
-        <v>4.785430677796069</v>
+        <v>19.97049874516183</v>
       </c>
       <c r="E111">
-        <v>1.048400084118999</v>
+        <v>19.70612594223238</v>
       </c>
       <c r="F111">
-        <v>25.02633112246446</v>
+        <v>2.27811986053564</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>13.02850493900596</v>
+        <v>18.89444114850461</v>
       </c>
       <c r="C112">
-        <v>14.76613520238517</v>
+        <v>9.935084324858275</v>
       </c>
       <c r="D112">
-        <v>4.688930987200576</v>
+        <v>19.96238722371079</v>
       </c>
       <c r="E112">
-        <v>0.9660626042212946</v>
+        <v>19.69577338214244</v>
       </c>
       <c r="F112">
-        <v>24.96809600436171</v>
+        <v>2.253969526759157</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>12.9673892405787</v>
+        <v>18.88715587367778</v>
       </c>
       <c r="C113">
-        <v>14.69927186753688</v>
+        <v>9.894795283959473</v>
       </c>
       <c r="D113">
-        <v>4.592422518550397</v>
+        <v>19.95345280988086</v>
       </c>
       <c r="E113">
-        <v>0.8847562648131126</v>
+        <v>19.68477550757115</v>
       </c>
       <c r="F113">
-        <v>24.90958385125742</v>
+        <v>2.229312501683987</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>12.90625665885621</v>
+        <v>18.87969366531392</v>
       </c>
       <c r="C114">
-        <v>14.63248020108285</v>
+        <v>9.854292052743117</v>
       </c>
       <c r="D114">
-        <v>4.495917321874473</v>
+        <v>19.94381024148005</v>
       </c>
       <c r="E114">
-        <v>0.8046406463471923</v>
+        <v>19.67323490752088</v>
       </c>
       <c r="F114">
-        <v>24.85082072943398</v>
+        <v>2.204154432472921</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12.84511336128865</v>
+        <v>18.87208849404235</v>
       </c>
       <c r="C115">
-        <v>14.5657626960078</v>
+        <v>9.813618165940818</v>
       </c>
       <c r="D115">
-        <v>4.399427004539588</v>
+        <v>19.9335579107632</v>
       </c>
       <c r="E115">
-        <v>0.7259067062275867</v>
+        <v>19.66123725280285</v>
       </c>
       <c r="F115">
-        <v>24.79183043664231</v>
+        <v>2.178501077534342</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>12.78396469926359</v>
+        <v>18.86436754368042</v>
       </c>
       <c r="C116">
-        <v>14.49912142798972</v>
+        <v>9.772809913226254</v>
       </c>
       <c r="D116">
-        <v>4.302962790247777</v>
+        <v>19.92278018196802</v>
       </c>
       <c r="E116">
-        <v>0.6487852099693538</v>
+        <v>19.64885414708052</v>
       </c>
       <c r="F116">
-        <v>24.73263470083208</v>
+        <v>2.152358318969859</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>12.72281532591708</v>
+        <v>18.85655261255971</v>
       </c>
       <c r="C117">
-        <v>14.4325581382688</v>
+        <v>9.731897586544958</v>
       </c>
       <c r="D117">
-        <v>4.206535575814055</v>
+        <v>19.91154939398692</v>
       </c>
       <c r="E117">
-        <v>0.5735573242636778</v>
+        <v>19.63614550201054</v>
       </c>
       <c r="F117">
-        <v>24.67325337600594</v>
+        <v>2.125732173974719</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>12.66166929622537</v>
+        <v>18.84866122601547</v>
       </c>
       <c r="C118">
-        <v>14.36607430322093</v>
+        <v>9.690906506340475</v>
       </c>
       <c r="D118">
-        <v>4.110155986573878</v>
+        <v>19.89992759122008</v>
       </c>
       <c r="E118">
-        <v>0.5005682191570863</v>
+        <v>19.62316151353022</v>
       </c>
       <c r="F118">
-        <v>24.6137046186433</v>
+        <v>2.098628780420048</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>12.60053015159429</v>
+        <v>18.84070750327865</v>
       </c>
       <c r="C119">
-        <v>14.29967118757805</v>
+        <v>9.649857880897608</v>
       </c>
       <c r="D119">
-        <v>4.013834430002876</v>
+        <v>19.88796801561879</v>
       </c>
       <c r="E119">
-        <v>0.4302437765782134</v>
+        <v>19.60994430005038</v>
       </c>
       <c r="F119">
-        <v>24.55400504656172</v>
+        <v>2.071054422025999</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>12.53940099159659</v>
+        <v>18.83270284673164</v>
       </c>
       <c r="C120">
-        <v>14.2333498840869</v>
+        <v>9.608769501247327</v>
       </c>
       <c r="D120">
-        <v>3.917581149011291</v>
+        <v>19.875716385682</v>
       </c>
       <c r="E120">
-        <v>0.3631096377178671</v>
+        <v>19.59652925701971</v>
       </c>
       <c r="F120">
-        <v>24.49416988124015</v>
+        <v>2.043015526635919</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12.47828453522139</v>
+        <v>18.82465651443244</v>
       </c>
       <c r="C121">
-        <v>14.16711134503154</v>
+        <v>9.567656322370317</v>
       </c>
       <c r="D121">
-        <v>3.821406274928942</v>
+        <v>19.8632119888107</v>
       </c>
       <c r="E121">
-        <v>0.2998103187759069</v>
+        <v>19.5829461774373</v>
       </c>
       <c r="F121">
-        <v>24.43421307609866</v>
+        <v>2.014518661365845</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>12.41718317327584</v>
+        <v>18.81657604335734</v>
       </c>
       <c r="C122">
-        <v>14.1009564088777</v>
+        <v>9.526530941055343</v>
       </c>
       <c r="D122">
-        <v>3.72531988075814</v>
+        <v>19.85048861293713</v>
       </c>
       <c r="E122">
-        <v>0.2411208301461141</v>
+        <v>19.56922018050403</v>
       </c>
       <c r="F122">
-        <v>24.37414743383612</v>
+        <v>1.985570571318034</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>12.35609901321204</v>
+        <v>18.80846757103639</v>
       </c>
       <c r="C123">
-        <v>14.03488582074719</v>
+        <v>9.485403988510708</v>
       </c>
       <c r="D123">
-        <v>3.62933203528596</v>
+        <v>19.83757534577921</v>
       </c>
       <c r="E123">
-        <v>0.1879353191944466</v>
+        <v>19.55537248166868</v>
       </c>
       <c r="F123">
-        <v>24.31398470866895</v>
+        <v>1.956178146629827</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>12.29503391726388</v>
+        <v>18.80033609203928</v>
       </c>
       <c r="C124">
-        <v>13.96890025347051</v>
+        <v>9.444284452153756</v>
       </c>
       <c r="D124">
-        <v>3.533452858664451</v>
+        <v>19.82449725256306</v>
       </c>
       <c r="E124">
-        <v>0.1412043261252377</v>
+        <v>19.54142103093625</v>
       </c>
       <c r="F124">
-        <v>24.25373570337087</v>
+        <v>1.926348456573556</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>12.23398953280581</v>
+        <v>18.79218568196774</v>
       </c>
       <c r="C125">
-        <v>13.90300031488288</v>
+        <v>9.40317995256253</v>
       </c>
       <c r="D125">
-        <v>3.437692580192693</v>
+        <v>19.81127595498683</v>
       </c>
       <c r="E125">
-        <v>0.1017864613887017</v>
+        <v>19.52738104223357</v>
       </c>
       <c r="F125">
-        <v>24.19341035508448</v>
+        <v>1.896088770031749</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12.17296732576786</v>
+        <v>18.7840196841576</v>
       </c>
       <c r="C126">
-        <v>13.83718657442838</v>
+        <v>9.362096996712088</v>
       </c>
       <c r="D126">
-        <v>3.342061598523745</v>
+        <v>19.79793012496357</v>
       </c>
       <c r="E126">
-        <v>0.07020317377162308</v>
+        <v>19.51326543319495</v>
       </c>
       <c r="F126">
-        <v>24.13301781269391</v>
+        <v>1.865406524450816</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>12.11196860211937</v>
+        <v>18.77584085704494</v>
       </c>
       <c r="C127">
-        <v>13.77145955395931</v>
+        <v>9.321041126841868</v>
       </c>
       <c r="D127">
-        <v>3.246570546184854</v>
+        <v>19.7844759051992</v>
       </c>
       <c r="E127">
-        <v>0.04637160128454376</v>
+        <v>19.49908519121501</v>
       </c>
       <c r="F127">
-        <v>24.07256650657605</v>
+        <v>1.834309383860551</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>12.05099452601789</v>
+        <v>18.76765147691581</v>
       </c>
       <c r="C128">
-        <v>13.7058197441261</v>
+        <v>9.280017076376582</v>
       </c>
       <c r="D128">
-        <v>3.151230358279207</v>
+        <v>19.77092726193279</v>
       </c>
       <c r="E128">
-        <v>0.02949134161452726</v>
+        <v>19.4848496785025</v>
       </c>
       <c r="F128">
-        <v>24.01206421217834</v>
+        <v>1.802805229016824</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>11.99004614853623</v>
+        <v>18.7594534221804</v>
       </c>
       <c r="C129">
-        <v>13.64026761114934</v>
+        <v>9.239028900041291</v>
       </c>
       <c r="D129">
-        <v>3.056052346930109</v>
+        <v>19.75729629648363</v>
       </c>
       <c r="E129">
-        <v>0.01822019530810707</v>
+        <v>19.4705668865539</v>
       </c>
       <c r="F129">
-        <v>23.95151810728487</v>
+        <v>1.770902152236035</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11.92912440645541</v>
+        <v>18.75124824432438</v>
       </c>
       <c r="C130">
-        <v>13.57480359425755</v>
+        <v>9.198080083032957</v>
       </c>
       <c r="D130">
-        <v>2.961048282614837</v>
+        <v>19.74359349055529</v>
       </c>
       <c r="E130">
-        <v>0.01105157036905438</v>
+        <v>19.45624363635568</v>
       </c>
       <c r="F130">
-        <v>23.89093482326776</v>
+        <v>1.7386085425111</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.86823014506391</v>
+        <v>18.74303722227652</v>
       </c>
       <c r="C131">
-        <v>13.50942811751078</v>
+        <v>9.157173633231496</v>
       </c>
       <c r="D131">
-        <v>2.866230483829785</v>
+        <v>19.72982800598737</v>
       </c>
       <c r="E131">
-        <v>0.006651814385130885</v>
+        <v>19.44188578136749</v>
       </c>
       <c r="F131">
-        <v>23.83032049250446</v>
+        <v>1.705933007070644</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11.80736412967568</v>
+        <v>18.73482142982861</v>
       </c>
       <c r="C132">
-        <v>13.44414159049247</v>
+        <v>9.11631216030184</v>
       </c>
       <c r="D132">
-        <v>2.771611917015018</v>
+        <v>19.71600778788651</v>
       </c>
       <c r="E132">
-        <v>0.004014073655368195</v>
+        <v>19.42749833588582</v>
       </c>
       <c r="F132">
-        <v>23.76968079085192</v>
+        <v>1.672884455543024</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.74652705321325</v>
+        <v>18.72660175751243</v>
       </c>
       <c r="C133">
-        <v>13.3789444115752</v>
+        <v>9.075497935257278</v>
       </c>
       <c r="D133">
-        <v>2.677206307942295</v>
+        <v>19.70213974479841</v>
       </c>
       <c r="E133">
-        <v>0.002454212384957129</v>
+        <v>19.41308562560656</v>
       </c>
       <c r="F133">
-        <v>23.70902097603293</v>
+        <v>1.639472139165059</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>11.68571954669031</v>
+        <v>18.71837895586241</v>
       </c>
       <c r="C134">
-        <v>13.31383697201656</v>
+        <v>9.034732941101483</v>
       </c>
       <c r="D134">
-        <v>2.583028267495612</v>
+        <v>19.68822991290355</v>
       </c>
       <c r="E134">
-        <v>0.001537540359016339</v>
+        <v>19.39865139599421</v>
       </c>
       <c r="F134">
-        <v>23.64834591912493</v>
+        <v>1.605705583001443</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>11.62494218872808</v>
+        <v>18.71015366648236</v>
       </c>
       <c r="C135">
-        <v>13.24881965522967</v>
+        <v>8.994018918037121</v>
       </c>
       <c r="D135">
-        <v>2.489093436239112</v>
+        <v>19.67428354245288</v>
       </c>
       <c r="E135">
-        <v>0.0009989720774486273</v>
+        <v>19.38419884256991</v>
       </c>
       <c r="F135">
-        <v>23.58766014640524</v>
+        <v>1.571594724979831</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>11.56419550891462</v>
+        <v>18.70192640121347</v>
       </c>
       <c r="C136">
-        <v>13.18389283920537</v>
+        <v>8.953357396127174</v>
       </c>
       <c r="D136">
-        <v>2.395418648485216</v>
+        <v>19.6603052214488</v>
       </c>
       <c r="E136">
-        <v>0.0006808429366834657</v>
+        <v>19.36973073629458</v>
       </c>
       <c r="F136">
-        <v>23.5269678535133</v>
+        <v>1.537149877955963</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11.50347999458041</v>
+        <v>18.6936976170114</v>
       </c>
       <c r="C137">
-        <v>13.11905689851445</v>
+        <v>8.91274972863542</v>
       </c>
       <c r="D137">
-        <v>2.302022121989857</v>
+        <v>19.64629896391823</v>
       </c>
       <c r="E137">
-        <v>0.0004907524743003178</v>
+        <v>19.35524946919178</v>
       </c>
       <c r="F137">
-        <v>23.46627295365808</v>
+        <v>1.502381730979332</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.44279609707105</v>
+        <v>18.68546767209546</v>
       </c>
       <c r="C138">
-        <v>13.05431220377878</v>
+        <v>8.872197114347513</v>
       </c>
       <c r="D138">
-        <v>2.208923678141105</v>
+        <v>19.63226830109349</v>
       </c>
       <c r="E138">
-        <v>0.0003749893307219905</v>
+        <v>19.34075710843013</v>
       </c>
       <c r="F138">
-        <v>23.40557907684026</v>
+        <v>1.467301501780273</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.38214423402876</v>
+        <v>18.67723687879548</v>
       </c>
       <c r="C139">
-        <v>12.98965912400897</v>
+        <v>8.831700639078742</v>
       </c>
       <c r="D139">
-        <v>2.116144999170736</v>
+        <v>19.61821632334293</v>
       </c>
       <c r="E139">
-        <v>0.0003024783977105462</v>
+        <v>19.32625544843681</v>
       </c>
       <c r="F139">
-        <v>23.34488960965988</v>
+        <v>1.431920873157571</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.32152479458383</v>
+        <v>18.66900549738193</v>
       </c>
       <c r="C140">
-        <v>12.92509802694029</v>
+        <v>8.791261260010732</v>
       </c>
       <c r="D140">
-        <v>2.023709932110383</v>
+        <v>19.60414574306109</v>
       </c>
       <c r="E140">
-        <v>0.0002552579472489291</v>
+        <v>19.31174606165386</v>
       </c>
       <c r="F140">
-        <v>23.28420770502788</v>
+        <v>1.396252109501568</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.26093814240734</v>
+        <v>18.66077374729638</v>
       </c>
       <c r="C141">
-        <v>12.86062927922262</v>
+        <v>8.750879878462843</v>
       </c>
       <c r="D141">
-        <v>1.931644842021755</v>
+        <v>19.59005894878842</v>
       </c>
       <c r="E141">
-        <v>0.0002229742841291088</v>
+        <v>19.29723031007517</v>
       </c>
       <c r="F141">
-        <v>23.22353629877716</v>
+        <v>1.360308063413266</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>11.20038461878335</v>
+        <v>18.65254182207876</v>
       </c>
       <c r="C142">
-        <v>12.79625324903323</v>
+        <v>8.710557276801477</v>
       </c>
       <c r="D142">
-        <v>1.839979040848935</v>
+        <v>19.57595803908419</v>
       </c>
       <c r="E142">
-        <v>0.000199663909770046</v>
+        <v>19.28270938111829</v>
       </c>
       <c r="F142">
-        <v>23.16287813689847</v>
+        <v>1.324102263610997</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>11.13986454754787</v>
+        <v>18.64430987975382</v>
       </c>
       <c r="C143">
-        <v>12.73197030356161</v>
+        <v>8.670294210773863</v>
       </c>
       <c r="D143">
-        <v>1.748745298204312</v>
+        <v>19.56184486265389</v>
       </c>
       <c r="E143">
-        <v>0.0001817905073382281</v>
+        <v>19.26818431649396</v>
       </c>
       <c r="F143">
-        <v>23.10223577786961</v>
+        <v>1.287648949458451</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>11.07937823085498</v>
+        <v>18.63607806189407</v>
       </c>
       <c r="C144">
-        <v>12.66778081176444</v>
+        <v>8.630091339109198</v>
       </c>
       <c r="D144">
-        <v>1.657980455567462</v>
+        <v>19.54772105019041</v>
       </c>
       <c r="E144">
-        <v>0.0001674013823688164</v>
+        <v>19.25365602040906</v>
       </c>
       <c r="F144">
-        <v>23.04161161851275</v>
+        <v>1.250963187540893</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>11.01892596484284</v>
+        <v>18.62784648365244</v>
       </c>
       <c r="C145">
-        <v>12.60368514578201</v>
+        <v>8.589949296946983</v>
       </c>
       <c r="D145">
-        <v>1.567726173196274</v>
+        <v>19.53358804085788</v>
       </c>
       <c r="E145">
-        <v>0.0001553036924336516</v>
+        <v>19.23912528547818</v>
       </c>
       <c r="F145">
-        <v>22.98100789786255</v>
+        <v>1.214060912250983</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>10.95850802086341</v>
+        <v>18.61961524547617</v>
       </c>
       <c r="C146">
-        <v>12.53968367499768</v>
+        <v>8.549868656392974</v>
       </c>
       <c r="D146">
-        <v>1.478029843188277</v>
+        <v>19.51944710438697</v>
       </c>
       <c r="E146">
-        <v>0.0001447822308495378</v>
+        <v>19.22459280420915</v>
       </c>
       <c r="F146">
-        <v>22.92042671494304</v>
+        <v>1.176959070919041</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10.8981246702428</v>
+        <v>18.61138443209287</v>
       </c>
       <c r="C147">
-        <v>12.47577677561779</v>
+        <v>8.509849963110913</v>
       </c>
       <c r="D147">
-        <v>1.388945713552079</v>
+        <v>19.50529937508391</v>
       </c>
       <c r="E147">
-        <v>0.0001354213343676179</v>
+        <v>19.21005918361546</v>
       </c>
       <c r="F147">
-        <v>22.85987003594706</v>
+        <v>1.139675699642333</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.83777616667785</v>
+        <v>18.60315411583235</v>
       </c>
       <c r="C148">
-        <v>12.41196482273288</v>
+        <v>8.469893726840736</v>
       </c>
       <c r="D148">
-        <v>1.300536296899291</v>
+        <v>19.49114583970166</v>
       </c>
       <c r="E148">
-        <v>0.0001269529099609349</v>
+        <v>19.19552497020034</v>
       </c>
       <c r="F148">
-        <v>22.79933970263002</v>
+        <v>1.102230062441791</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>10.7774627567046</v>
+        <v>18.59492435880755</v>
       </c>
       <c r="C149">
-        <v>12.34824819414081</v>
+        <v>8.430000433610845</v>
       </c>
       <c r="D149">
-        <v>1.212873979129259</v>
+        <v>19.47698741458995</v>
       </c>
       <c r="E149">
-        <v>0.0001192107613610199</v>
+        <v>19.18099061445908</v>
       </c>
       <c r="F149">
-        <v>22.73883744661066</v>
+        <v>1.064642781166922</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10.71718468036411</v>
+        <v>18.58669521298238</v>
       </c>
       <c r="C150">
-        <v>12.28462727102064</v>
+        <v>8.390170545715119</v>
       </c>
       <c r="D150">
-        <v>1.126043466931899</v>
+        <v>19.46282486214604</v>
       </c>
       <c r="E150">
-        <v>0.0001120808347250667</v>
+        <v>19.16645656961254</v>
       </c>
       <c r="F150">
-        <v>22.678364889912</v>
+        <v>1.026936032410886</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10.65694216809095</v>
+        <v>18.57846672791046</v>
       </c>
       <c r="C151">
-        <v>12.22110243572476</v>
+        <v>8.35040450826869</v>
       </c>
       <c r="D151">
-        <v>1.04014442783818</v>
+        <v>19.44865891881561</v>
       </c>
       <c r="E151">
-        <v>0.0001054880439385232</v>
+        <v>19.15192317551877</v>
       </c>
       <c r="F151">
-        <v>22.61792355997315</v>
+        <v>0.9891337217914362</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10.59673544704305</v>
+        <v>18.57023893948595</v>
       </c>
       <c r="C152">
-        <v>12.15767407420488</v>
+        <v>8.310702747030833</v>
       </c>
       <c r="D152">
-        <v>0.9552949930946424</v>
+        <v>19.43449018359004</v>
       </c>
       <c r="E152">
-        <v>9.937169977998916E-05</v>
+        <v>19.13739078055112</v>
       </c>
       <c r="F152">
-        <v>22.55751489071159</v>
+        <v>0.9512616924348488</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10.53656473773123</v>
+        <v>18.56201188392063</v>
       </c>
       <c r="C153">
-        <v>12.09434257498086</v>
+        <v>8.271065675692265</v>
       </c>
       <c r="D153">
-        <v>0.871636346128372</v>
+        <v>19.42031923226987</v>
       </c>
       <c r="E153">
-        <v>9.368702560095105E-05</v>
+        <v>19.12285968209498</v>
       </c>
       <c r="F153">
-        <v>22.4971402332993</v>
+        <v>0.9133479546648146</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10.47643025809143</v>
+        <v>18.55378559785375</v>
       </c>
       <c r="C154">
-        <v>12.03110832961981</v>
+        <v>8.231493692490229</v>
       </c>
       <c r="D154">
-        <v>0.7893386615623247</v>
+        <v>19.40614654659541</v>
       </c>
       <c r="E154">
-        <v>8.839398131029224E-05</v>
+        <v>19.1083301194895</v>
       </c>
       <c r="F154">
-        <v>22.43680085955025</v>
+        <v>0.8754229801034515</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.41633222116886</v>
+        <v>18.54556009798905</v>
       </c>
       <c r="C155">
-        <v>11.96797173283273</v>
+        <v>8.191987186476243</v>
       </c>
       <c r="D155">
-        <v>0.7086086578499965</v>
+        <v>19.3919725739958</v>
       </c>
       <c r="E155">
-        <v>8.345552452375141E-05</v>
+        <v>19.09380233745539</v>
       </c>
       <c r="F155">
-        <v>22.37649796777107</v>
+        <v>0.8375200371411949</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.35627083876871</v>
+        <v>18.53733541508731</v>
       </c>
       <c r="C156">
-        <v>11.9049331823748</v>
+        <v>8.152546535983699</v>
       </c>
       <c r="D156">
-        <v>0.6296997398213863</v>
+        <v>19.37779770312056</v>
       </c>
       <c r="E156">
-        <v>7.884442540691529E-05</v>
+        <v>19.07927652386276</v>
       </c>
       <c r="F156">
-        <v>22.31623268935473</v>
+        <v>0.7996755606014823</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.29624631961681</v>
+        <v>18.52911156959795</v>
       </c>
       <c r="C157">
-        <v>11.84199307965822</v>
+        <v>8.113172112022097</v>
       </c>
       <c r="D157">
-        <v>0.5529246062418929</v>
+        <v>19.36362229011807</v>
       </c>
       <c r="E157">
-        <v>7.453204201639505E-05</v>
+        <v>19.06475286247428</v>
       </c>
       <c r="F157">
-        <v>22.25600609022899</v>
+        <v>0.7619295554088145</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.23625887054341</v>
+        <v>18.52088857457429</v>
       </c>
       <c r="C158">
-        <v>11.77915182897997</v>
+        <v>8.073864278942906</v>
       </c>
       <c r="D158">
-        <v>0.4786714907938801</v>
+        <v>19.34944664783024</v>
       </c>
       <c r="E158">
-        <v>7.049472958832603E-05</v>
+        <v>19.05023150935858</v>
       </c>
       <c r="F158">
-        <v>22.19581917891111</v>
+        <v>0.7243261321894434</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.17630869791739</v>
+        <v>18.51266644876594</v>
       </c>
       <c r="C159">
-        <v>11.71640983829366</v>
+        <v>8.034623393580347</v>
       </c>
       <c r="D159">
-        <v>0.4074239885068478</v>
+        <v>19.33527106364293</v>
       </c>
       <c r="E159">
-        <v>6.671284377152117E-05</v>
+        <v>19.03571260559247</v>
       </c>
       <c r="F159">
-        <v>22.13567290681929</v>
+        <v>0.6869140593039047</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.11639600581294</v>
+        <v>18.50444520339446</v>
       </c>
       <c r="C160">
-        <v>11.65376751907964</v>
+        <v>7.995449809769314</v>
       </c>
       <c r="D160">
-        <v>0.3397832298266433</v>
+        <v>19.32109579210568</v>
       </c>
       <c r="E160">
-        <v>6.31699888985544E-05</v>
+        <v>19.02119627823535</v>
       </c>
       <c r="F160">
-        <v>22.07556817487925</v>
+        <v>0.6497473292931447</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.05652099902922</v>
+        <v>18.49622484965608</v>
       </c>
       <c r="C161">
-        <v>11.59122528595398</v>
+        <v>7.956343880238569</v>
       </c>
       <c r="D161">
-        <v>0.2764881824048948</v>
+        <v>19.30692106310024</v>
       </c>
       <c r="E161">
-        <v>5.985095819130448E-05</v>
+        <v>19.00668263885016</v>
       </c>
       <c r="F161">
-        <v>22.01550583496845</v>
+        <v>0.6128860274921357</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.996683881084712</v>
+        <v>18.48800539738562</v>
       </c>
       <c r="C162">
-        <v>11.52878355742989</v>
+        <v>7.917305947231945</v>
       </c>
       <c r="D162">
-        <v>0.2184225053468453</v>
+        <v>19.29274708515529</v>
       </c>
       <c r="E162">
-        <v>5.674122083735789E-05</v>
+        <v>18.99217179439778</v>
       </c>
       <c r="F162">
-        <v>21.95548669251471</v>
+        <v>0.5763970885404743</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.936884856313455</v>
+        <v>18.4797868550071</v>
       </c>
       <c r="C163">
-        <v>11.46644275545998</v>
+        <v>7.878336354052967</v>
       </c>
       <c r="D163">
-        <v>0.1665841979282975</v>
+        <v>19.27857404190309</v>
       </c>
       <c r="E163">
-        <v>5.382502157894203E-05</v>
+        <v>18.97766383110406</v>
       </c>
       <c r="F163">
-        <v>21.8955115122983</v>
+        <v>0.5403551849181436</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.8771241290798</v>
+        <v>18.47156923017304</v>
       </c>
       <c r="C164">
-        <v>11.40420330568411</v>
+        <v>7.839435448785846</v>
       </c>
       <c r="D164">
-        <v>0.121979464803101</v>
+        <v>19.2644021027252</v>
       </c>
       <c r="E164">
-        <v>5.108548326985511E-05</v>
+        <v>18.96315883666986</v>
       </c>
       <c r="F164">
-        <v>21.83558102154336</v>
+        <v>0.5048437142734059</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.817401904627582</v>
+        <v>18.46335252953023</v>
       </c>
       <c r="C165">
-        <v>11.34206563747001</v>
+        <v>7.800603567944025</v>
       </c>
       <c r="D165">
-        <v>0.08540423881649956</v>
+        <v>19.25023141653053</v>
       </c>
       <c r="E165">
-        <v>4.85096433892741E-05</v>
+        <v>18.94865688440467</v>
       </c>
       <c r="F165">
-        <v>21.7756959023201</v>
+        <v>0.4699558543428737</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.757718388889566</v>
+        <v>18.45513675907241</v>
       </c>
       <c r="C166">
-        <v>11.28003018398733</v>
+        <v>7.761841045808697</v>
       </c>
       <c r="D166">
-        <v>0.05713533957353529</v>
+        <v>19.23606212037011</v>
       </c>
       <c r="E166">
-        <v>4.608791677430963E-05</v>
+        <v>18.93415803998467</v>
       </c>
       <c r="F166">
-        <v>21.71585681349626</v>
+        <v>0.4357956047542867</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.698073788779132</v>
+        <v>18.44692192514973</v>
       </c>
       <c r="C167">
-        <v>11.21809738220452</v>
+        <v>7.723148226518524</v>
       </c>
       <c r="D167">
-        <v>0.0366831433211158</v>
+        <v>19.22189433619571</v>
       </c>
       <c r="E167">
-        <v>4.381280449627206E-05</v>
+        <v>18.91966236528261</v>
       </c>
       <c r="F167">
-        <v>21.65606437677795</v>
+        <v>0.4024787244423354</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.638468313552782</v>
+        <v>18.43870803162784</v>
       </c>
       <c r="C168">
-        <v>11.15626767295315</v>
+        <v>7.68452544542663</v>
       </c>
       <c r="D168">
-        <v>0.02282384883329859</v>
+        <v>19.20772817627289</v>
       </c>
       <c r="E168">
-        <v>4.167508627549259E-05</v>
+        <v>18.90516991266919</v>
       </c>
       <c r="F168">
-        <v>21.59631917700785</v>
+        <v>0.3701334250179439</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9.578902174430517</v>
+        <v>18.43049508361991</v>
       </c>
       <c r="C169">
-        <v>11.09454150101514</v>
+        <v>7.645973032789495</v>
       </c>
       <c r="D169">
-        <v>0.01395129511121277</v>
+        <v>19.19356374038079</v>
       </c>
       <c r="E169">
-        <v>3.966399336945362E-05</v>
+        <v>18.89068073162491</v>
       </c>
       <c r="F169">
-        <v>21.53662178294249</v>
+        <v>0.3389006629337682</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.519375581968479</v>
+        <v>18.42228308545607</v>
       </c>
       <c r="C170">
-        <v>11.03291931512213</v>
+        <v>7.607491327476374</v>
       </c>
       <c r="D170">
-        <v>0.0085127655362979</v>
+        <v>19.17940112162174</v>
       </c>
       <c r="E170">
-        <v>3.776641137678412E-05</v>
+        <v>18.87619486574436</v>
       </c>
       <c r="F170">
-        <v>21.47697272596512</v>
+        <v>0.3089334115851641</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>9.459888750414557</v>
+        <v>18.4140720399343</v>
       </c>
       <c r="C171">
-        <v>10.97140156794759</v>
+        <v>7.56908066390255</v>
       </c>
       <c r="D171">
-        <v>0.00527630612412907</v>
+        <v>19.16524040176422</v>
       </c>
       <c r="E171">
-        <v>3.597457856885046E-05</v>
+        <v>18.86171235524791</v>
       </c>
       <c r="F171">
-        <v>21.41737251472504</v>
+        <v>0.2803948782378575</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.400441897889307</v>
+        <v>18.40586195062377</v>
       </c>
       <c r="C172">
-        <v>10.90998871628489</v>
+        <v>7.530741373838971</v>
       </c>
       <c r="D172">
-        <v>0.003384401713828743</v>
+        <v>19.15108165791384</v>
       </c>
       <c r="E172">
-        <v>3.428369268589845E-05</v>
+        <v>18.8472332363766</v>
       </c>
       <c r="F172">
-        <v>21.35782163820579</v>
+        <v>0.253454832963409</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9.341035244937062</v>
+        <v>18.39765282027715</v>
       </c>
       <c r="C173">
-        <v>10.84868122092059</v>
+        <v>7.492473792419325</v>
       </c>
       <c r="D173">
-        <v>0.002288224575274195</v>
+        <v>19.13692495768805</v>
       </c>
       <c r="E173">
-        <v>3.269190992058769E-05</v>
+        <v>18.83275754213147</v>
       </c>
       <c r="F173">
-        <v>21.29832055506695</v>
+        <v>0.2282835145515967</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>9.281669009049565</v>
+        <v>18.3894446512919</v>
       </c>
       <c r="C174">
-        <v>10.78747954679917</v>
+        <v>7.454278253767732</v>
       </c>
       <c r="D174">
-        <v>0.001654109269708736</v>
+        <v>19.12277036449775</v>
       </c>
       <c r="E174">
-        <v>3.119310682582117E-05</v>
+        <v>18.81828530351467</v>
       </c>
       <c r="F174">
-        <v>21.23886970917373</v>
+        <v>0.2050424028733897</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>9.222343416227757</v>
+        <v>18.38123744586499</v>
       </c>
       <c r="C175">
-        <v>10.72638416301028</v>
+        <v>7.416155092252241</v>
       </c>
       <c r="D175">
-        <v>0.001285366532616436</v>
+        <v>19.10861793398152</v>
       </c>
       <c r="E175">
-        <v>2.97793557208521E-05</v>
+        <v>18.80381654718166</v>
       </c>
       <c r="F175">
-        <v>21.17946952260647</v>
+        <v>0.1838721175203273</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9.163058694851753</v>
+        <v>18.37303120614859</v>
       </c>
       <c r="C176">
-        <v>10.66539554282859</v>
+        <v>7.378104642974697</v>
       </c>
       <c r="D176">
-        <v>0.001068164401897419</v>
+        <v>19.09446771829114</v>
       </c>
       <c r="E176">
-        <v>2.843868923533821E-05</v>
+        <v>18.78935129943517</v>
       </c>
       <c r="F176">
-        <v>21.12012039690578</v>
+        <v>0.1648781263734972</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>9.103815076103407</v>
+        <v>18.36482593396181</v>
       </c>
       <c r="C177">
-        <v>10.60451416376507</v>
+        <v>7.340127241632067</v>
       </c>
       <c r="D177">
-        <v>0.0009372730475406287</v>
+        <v>19.08031976613377</v>
       </c>
       <c r="E177">
-        <v>2.716706376883009E-05</v>
+        <v>18.77488958280263</v>
       </c>
       <c r="F177">
-        <v>21.06082271911096</v>
+        <v>0.1481158063889921</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9.044612789712419</v>
+        <v>18.3566216310387</v>
       </c>
       <c r="C178">
-        <v>10.54374050761456</v>
+        <v>7.30222322384332</v>
       </c>
       <c r="D178">
-        <v>0.0008555118715579339</v>
+        <v>19.06617411918398</v>
       </c>
       <c r="E178">
-        <v>2.596263117296417E-05</v>
+        <v>18.76043141861068</v>
       </c>
       <c r="F178">
-        <v>21.00157685769644</v>
+        <v>0.1335782696636962</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>8.985452074243279</v>
+        <v>18.34841829897348</v>
       </c>
       <c r="C179">
-        <v>10.48307506047786</v>
+        <v>7.2643929271702</v>
       </c>
       <c r="D179">
-        <v>0.0008017914106136837</v>
+        <v>19.05203081666669</v>
       </c>
       <c r="E179">
-        <v>2.482845886214275E-05</v>
+        <v>18.74597682638942</v>
       </c>
       <c r="F179">
-        <v>20.94238316567891</v>
+        <v>0.1211903015586454</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>8.9263331699806</v>
+        <v>18.34021593938493</v>
       </c>
       <c r="C180">
-        <v>10.42251831281117</v>
+        <v>7.226636689888542</v>
       </c>
       <c r="D180">
-        <v>0.0007641554583100492</v>
+        <v>19.03788989804089</v>
       </c>
       <c r="E180">
-        <v>2.375927042731313E-05</v>
+        <v>18.73152582366276</v>
       </c>
       <c r="F180">
-        <v>20.88324198362411</v>
+        <v>0.1108110952779294</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>8.867256320601474</v>
+        <v>18.33201455360639</v>
       </c>
       <c r="C181">
-        <v>10.36207075946297</v>
+        <v>7.188954848913794</v>
       </c>
       <c r="D181">
-        <v>0.0007358400759619152</v>
+        <v>19.0237513965061</v>
       </c>
       <c r="E181">
-        <v>2.274858873446824E-05</v>
+        <v>18.71707842696376</v>
       </c>
       <c r="F181">
-        <v>20.8241536342445</v>
+        <v>0.1022462310012085</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>8.808221772375115</v>
+        <v>18.32381414294141</v>
       </c>
       <c r="C182">
-        <v>10.3017328997184</v>
+        <v>7.151347744449528</v>
       </c>
       <c r="D182">
-        <v>0.0007129838409537553</v>
+        <v>19.0096153397085</v>
       </c>
       <c r="E182">
-        <v>2.178359218375254E-05</v>
+        <v>18.70263465126382</v>
       </c>
       <c r="F182">
-        <v>20.76511843060029</v>
+        <v>0.09526646765361678</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>8.749229776890784</v>
+        <v>18.31561470873233</v>
       </c>
       <c r="C183">
-        <v>10.24150523731462</v>
+        <v>7.113815717049773</v>
       </c>
       <c r="D183">
-        <v>0.0006934281234933549</v>
+        <v>18.99548175983444</v>
       </c>
       <c r="E183">
-        <v>2.086365999792405E-05</v>
+        <v>18.68819451065122</v>
       </c>
       <c r="F183">
-        <v>20.70613667280313</v>
+        <v>0.08962902735692474</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8.690280589183024</v>
+        <v>18.30741625198485</v>
       </c>
       <c r="C184">
-        <v>10.18138828051023</v>
+        <v>7.07635910644357</v>
       </c>
       <c r="D184">
-        <v>0.0006759336504033309</v>
+        <v>18.98135068412325</v>
       </c>
       <c r="E184">
-        <v>1.998886005216147E-05</v>
+        <v>18.67375801800546</v>
       </c>
       <c r="F184">
-        <v>20.64720864669854</v>
+        <v>0.08509689504506258</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8.631374468483465</v>
+        <v>18.29921877382851</v>
       </c>
       <c r="C185">
-        <v>10.12138254210094</v>
+        <v>7.038978254788764</v>
       </c>
       <c r="D185">
-        <v>0.0006597954078993889</v>
+        <v>18.96722213267031</v>
       </c>
       <c r="E185">
-        <v>1.916731612891465E-05</v>
+        <v>18.6593251854081</v>
       </c>
       <c r="F185">
-        <v>20.5883346300587</v>
+        <v>0.08145306635058826</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>8.572511678399012</v>
+        <v>18.29102227526051</v>
       </c>
       <c r="C186">
-        <v>10.06148853945876</v>
+        <v>7.00167350474694</v>
       </c>
       <c r="D186">
-        <v>0.0006446085603620823</v>
+        <v>18.95309613047391</v>
       </c>
       <c r="E186">
-        <v>1.839277009026695E-05</v>
+        <v>18.64489602418513</v>
       </c>
       <c r="F186">
-        <v>20.52951488873636</v>
+        <v>0.07850882082058179</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8.513692486764439</v>
+        <v>18.28282675720221</v>
       </c>
       <c r="C187">
-        <v>10.00170679458103</v>
+        <v>6.964445199519941</v>
       </c>
       <c r="D187">
-        <v>0.0006301360253995363</v>
+        <v>18.93897269893935</v>
       </c>
       <c r="E187">
-        <v>1.765959140644103E-05</v>
+        <v>18.63047054462641</v>
       </c>
       <c r="F187">
-        <v>20.470749678102</v>
+        <v>0.07610663265192724</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8.454917166049347</v>
+        <v>18.27463222052859</v>
       </c>
       <c r="C188">
-        <v>9.942037834118754</v>
+        <v>6.927293683387785</v>
       </c>
       <c r="D188">
-        <v>0.0006162388619290403</v>
+        <v>18.92485185483327</v>
       </c>
       <c r="E188">
-        <v>1.695234860742645E-05</v>
+        <v>18.61604875672661</v>
       </c>
       <c r="F188">
-        <v>20.41203924558757</v>
+        <v>0.07411923632306322</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>8.396185993517843</v>
+        <v>18.26643866609669</v>
       </c>
       <c r="C189">
-        <v>9.882482189417804</v>
+        <v>6.890219301532817</v>
       </c>
       <c r="D189">
-        <v>0.0006028261669409222</v>
+        <v>18.9107336168178</v>
       </c>
       <c r="E189">
-        <v>1.627373074387215E-05</v>
+        <v>18.60163066943522</v>
       </c>
       <c r="F189">
-        <v>20.35338382831446</v>
+        <v>0.07244643170721364</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>8.337499251306996</v>
+        <v>18.25824609471728</v>
       </c>
       <c r="C190">
-        <v>9.823040396556918</v>
+        <v>6.853222400145757</v>
       </c>
       <c r="D190">
-        <v>0.0005898545996728507</v>
+        <v>18.89661800137327</v>
       </c>
       <c r="E190">
-        <v>1.5625834892593E-05</v>
+        <v>18.58721629144047</v>
       </c>
       <c r="F190">
-        <v>20.29478365580919</v>
+        <v>0.07101092440664951</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>8.278857226489881</v>
+        <v>18.2500545071683</v>
       </c>
       <c r="C191">
-        <v>9.763712996386005</v>
+        <v>6.816303326339568</v>
       </c>
       <c r="D191">
-        <v>0.00057728789453576</v>
+        <v>18.88250502314973</v>
       </c>
       <c r="E191">
-        <v>1.502184410871458E-05</v>
+        <v>18.57280563076978</v>
       </c>
       <c r="F191">
-        <v>20.23623894990371</v>
+        <v>0.0697540364376881</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8.220260211336715</v>
+        <v>18.24186390419746</v>
       </c>
       <c r="C192">
-        <v>9.704500534562246</v>
+        <v>6.779462428170635</v>
       </c>
       <c r="D192">
-        <v>0.0005650978420501001</v>
+        <v>18.86839469637436</v>
       </c>
       <c r="E192">
-        <v>1.445418594836978E-05</v>
+        <v>18.55839869496121</v>
       </c>
       <c r="F192">
-        <v>20.17774992366111</v>
+        <v>0.06863177032941298</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.161708503277225</v>
+        <v>18.23367428655362</v>
       </c>
       <c r="C193">
-        <v>9.645403561587241</v>
+        <v>6.742700054634107</v>
       </c>
       <c r="D193">
-        <v>0.0005532610843177149</v>
+        <v>18.85428703446038</v>
       </c>
       <c r="E193">
-        <v>1.391607797359132E-05</v>
+        <v>18.54399549119568</v>
       </c>
       <c r="F193">
-        <v>20.11931678442778</v>
+        <v>0.06761143574858083</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.10320240525248</v>
+        <v>18.22548565494692</v>
       </c>
       <c r="C194">
-        <v>9.586422632847563</v>
+        <v>6.706016555718381</v>
       </c>
       <c r="D194">
-        <v>0.0005417600568627737</v>
+        <v>18.84018204950527</v>
       </c>
       <c r="E194">
-        <v>1.338843909182031E-05</v>
+        <v>18.52959602619332</v>
       </c>
       <c r="F194">
-        <v>20.06093973223228</v>
+        <v>0.06666894854438148</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.044742225811813</v>
+        <v>18.21729801004987</v>
       </c>
       <c r="C195">
-        <v>9.527558308647858</v>
+        <v>6.669412282489066</v>
       </c>
       <c r="D195">
-        <v>0.0005305826779795276</v>
+        <v>18.82607975300452</v>
       </c>
       <c r="E195">
-        <v>1.287719890966897E-05</v>
+        <v>18.51520030640766</v>
       </c>
       <c r="F195">
-        <v>20.0026189601101</v>
+        <v>0.0657866788115636</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7.986328279195551</v>
+        <v>18.20911135255781</v>
       </c>
       <c r="C196">
-        <v>9.468811154248678</v>
+        <v>6.632887586818414</v>
       </c>
       <c r="D196">
-        <v>0.0005197158383439166</v>
+        <v>18.81198015628737</v>
       </c>
       <c r="E196">
-        <v>1.238570200719745E-05</v>
+        <v>18.50080833788693</v>
       </c>
       <c r="F196">
-        <v>19.9443546561366</v>
+        <v>0.06495175326792278</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7.927960885614098</v>
+        <v>18.20092568310546</v>
       </c>
       <c r="C197">
-        <v>9.410181739907271</v>
+        <v>6.596442821432619</v>
       </c>
       <c r="D197">
-        <v>0.0005091454919784593</v>
+        <v>18.79788326955332</v>
       </c>
       <c r="E197">
-        <v>1.192830256779901E-05</v>
+        <v>18.48642012646954</v>
       </c>
       <c r="F197">
-        <v>19.88614700170046</v>
+        <v>0.06415479445683103</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7.869640371196576</v>
+        <v>18.1927410023318</v>
       </c>
       <c r="C198">
-        <v>9.351670640906384</v>
+        <v>6.560078340270224</v>
       </c>
       <c r="D198">
-        <v>0.0004988599778764315</v>
+        <v>18.78378910193365</v>
       </c>
       <c r="E198">
-        <v>1.150279943124581E-05</v>
+        <v>18.47203567769989</v>
       </c>
       <c r="F198">
-        <v>19.82799617297651</v>
+        <v>0.0633889782998459</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7.811367068257368</v>
+        <v>18.18455731085996</v>
       </c>
       <c r="C199">
-        <v>9.293278437600117</v>
+        <v>6.523794498043087</v>
       </c>
       <c r="D199">
-        <v>0.0004888561061752419</v>
+        <v>18.76969766310037</v>
       </c>
       <c r="E199">
-        <v>1.110614335977054E-05</v>
+        <v>18.45765499684925</v>
       </c>
       <c r="F199">
-        <v>19.76990234139013</v>
+        <v>0.06264933577398533</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7.753141315479552</v>
+        <v>18.17637460929484</v>
       </c>
       <c r="C200">
-        <v>9.235005715443611</v>
+        <v>6.487591650232542</v>
       </c>
       <c r="D200">
-        <v>0.0004791239440990254</v>
+        <v>18.75560896181002</v>
       </c>
       <c r="E200">
-        <v>1.072173560437282E-05</v>
+        <v>18.44327808903715</v>
       </c>
       <c r="F200">
-        <v>19.71186567251079</v>
+        <v>0.0619322276222208</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7.694963458719425</v>
+        <v>18.1681928982302</v>
       </c>
       <c r="C201">
-        <v>9.176853065031318</v>
+        <v>6.451470153448808</v>
       </c>
       <c r="D201">
-        <v>0.0004696554957598687</v>
+        <v>18.7415230055345</v>
       </c>
       <c r="E201">
-        <v>1.034427398705548E-05</v>
+        <v>18.42890495909319</v>
       </c>
       <c r="F201">
-        <v>19.6538863280934</v>
+        <v>0.06123497042176172</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7.636833849746831</v>
+        <v>18.16001217825216</v>
       </c>
       <c r="C202">
-        <v>9.118821082135813</v>
+        <v>6.415430365108668</v>
       </c>
       <c r="D202">
-        <v>0.0004604444149531184</v>
+        <v>18.72743980236981</v>
       </c>
       <c r="E202">
-        <v>9.971089455894723E-06</v>
+        <v>18.41453561173639</v>
       </c>
       <c r="F202">
-        <v>19.59596446520183</v>
+        <v>0.06055556851429462</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7.578752847433071</v>
+        <v>18.15183244994056</v>
       </c>
       <c r="C203">
-        <v>9.060910367737005</v>
+        <v>6.379472643456496</v>
       </c>
       <c r="D203">
-        <v>0.0004514770068781731</v>
+        <v>18.71335935971995</v>
       </c>
       <c r="E203">
-        <v>9.613167229945059E-06</v>
+        <v>18.40017005146818</v>
       </c>
       <c r="F203">
-        <v>19.53810023629993</v>
+        <v>0.05989252026713388</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7.520720817893158</v>
+        <v>18.14365371386551</v>
       </c>
       <c r="C204">
-        <v>9.00312152806689</v>
+        <v>6.343597347670647</v>
       </c>
       <c r="D204">
-        <v>0.0004427413294723782</v>
+        <v>18.69928168415542</v>
       </c>
       <c r="E204">
-        <v>9.274090119157335E-06</v>
+        <v>18.38580828265186</v>
       </c>
       <c r="F204">
-        <v>19.48029379046616</v>
+        <v>0.0592446693602616</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7.462738135222694</v>
+        <v>18.13547597058939</v>
       </c>
       <c r="C205">
-        <v>8.945455174636585</v>
+        <v>6.307804837766736</v>
       </c>
       <c r="D205">
-        <v>0.0004342322915018425</v>
+        <v>18.68520678240423</v>
       </c>
       <c r="E205">
-        <v>8.959345256646408E-06</v>
+        <v>18.37145030951245</v>
       </c>
       <c r="F205">
-        <v>19.42254527260074</v>
+        <v>0.05861110852533693</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7.404805179966772</v>
+        <v>18.12729922067378</v>
       </c>
       <c r="C206">
-        <v>8.887911924274864</v>
+        <v>6.27209547460732</v>
       </c>
       <c r="D206">
-        <v>0.0004259493948801082</v>
+        <v>18.6711346607521</v>
       </c>
       <c r="E206">
-        <v>8.668342586097058E-06</v>
+        <v>18.35709613612982</v>
       </c>
       <c r="F206">
-        <v>19.36485482399963</v>
+        <v>0.05799110967283799</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7.346922340649933</v>
+        <v>18.11912346467421</v>
       </c>
       <c r="C207">
-        <v>8.830492399166404</v>
+        <v>6.236469619894099</v>
       </c>
       <c r="D207">
-        <v>0.0004178860678712548</v>
+        <v>18.65706532510672</v>
       </c>
       <c r="E207">
-        <v>8.391196872651807E-06</v>
+        <v>18.34274576648998</v>
       </c>
       <c r="F207">
-        <v>19.30722258290669</v>
+        <v>0.05738405558868825</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7.289090014065879</v>
+        <v>18.11094870313422</v>
       </c>
       <c r="C208">
-        <v>8.773197226874965</v>
+        <v>6.200927636151441</v>
       </c>
       <c r="D208">
-        <v>0.000410017796595157</v>
+        <v>18.64299878120997</v>
       </c>
       <c r="E208">
-        <v>8.120726512538396E-06</v>
+        <v>18.32839920444127</v>
       </c>
       <c r="F208">
-        <v>19.24964868375556</v>
+        <v>0.05678943963756523</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7.231308605509731</v>
+        <v>18.1027749366026</v>
       </c>
       <c r="C209">
-        <v>8.716027040393541</v>
+        <v>6.165469886654066</v>
       </c>
       <c r="D209">
-        <v>0.0004023469494131906</v>
+        <v>18.62893503459884</v>
       </c>
       <c r="E209">
-        <v>7.851139277542422E-06</v>
+        <v>18.31405645376281</v>
       </c>
       <c r="F209">
-        <v>19.19213325836957</v>
+        <v>0.05620683068312695</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7.173578527737044</v>
+        <v>18.09460216561803</v>
       </c>
       <c r="C210">
-        <v>8.658982478163326</v>
+        <v>6.13009673552808</v>
       </c>
       <c r="D210">
-        <v>0.0003948714242549992</v>
+        <v>18.61487409050915</v>
       </c>
       <c r="E210">
-        <v>7.588475634255826E-06</v>
+        <v>18.29971751810478</v>
       </c>
       <c r="F210">
-        <v>19.13467643558291</v>
+        <v>0.05563584726609843</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7.115900202325479</v>
+        <v>18.08643039071496</v>
       </c>
       <c r="C211">
-        <v>8.602064184113864</v>
+        <v>6.094808547662469</v>
       </c>
       <c r="D211">
-        <v>0.0003875839988641651</v>
+        <v>18.60081595400613</v>
       </c>
       <c r="E211">
-        <v>7.336763831901667E-06</v>
+        <v>18.28538240104844</v>
       </c>
       <c r="F211">
-        <v>19.07727834110515</v>
+        <v>0.05507613617411179</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7.058274060310414</v>
+        <v>18.07825961242697</v>
       </c>
       <c r="C212">
-        <v>8.545272807699599</v>
+        <v>6.059605688584778</v>
       </c>
       <c r="D212">
-        <v>0.0003804779749544246</v>
+        <v>18.58676063008336</v>
       </c>
       <c r="E212">
-        <v>7.102600137387743E-06</v>
+        <v>18.27105110613142</v>
       </c>
       <c r="F212">
-        <v>19.01993909844795</v>
+        <v>0.05452735166534471</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7.000700541688696</v>
+        <v>18.07008983128283</v>
       </c>
       <c r="C213">
-        <v>8.488609003917645</v>
+        <v>6.024488524662606</v>
       </c>
       <c r="D213">
-        <v>0.0003735478942568374</v>
+        <v>18.57270812347506</v>
       </c>
       <c r="E213">
-        <v>6.884760258273455E-06</v>
+        <v>18.25672363681947</v>
       </c>
       <c r="F213">
-        <v>18.96265882840948</v>
+        <v>0.05398917925595483</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6.943180095136809</v>
+        <v>18.06192104780881</v>
       </c>
       <c r="C214">
-        <v>8.432073433361259</v>
+        <v>5.989457422947799</v>
       </c>
       <c r="D214">
-        <v>0.0003667886334383695</v>
+        <v>18.55865843865964</v>
       </c>
       <c r="E214">
-        <v>6.679484890490915E-06</v>
+        <v>18.24239999638652</v>
       </c>
       <c r="F214">
-        <v>18.90543764932286</v>
+        <v>0.05346133609276939</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6.885713179061434</v>
+        <v>18.05375326252882</v>
       </c>
       <c r="C215">
-        <v>8.37566676223059</v>
+        <v>5.954512751099163</v>
       </c>
       <c r="D215">
-        <v>0.0003601943100477598</v>
+        <v>18.54461158018815</v>
       </c>
       <c r="E215">
-        <v>6.478245768778127E-06</v>
+        <v>18.22808018822434</v>
       </c>
       <c r="F215">
-        <v>18.84827567753633</v>
+        <v>0.05294355689395543</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6.828300262826229</v>
+        <v>18.04558647596546</v>
       </c>
       <c r="C216">
-        <v>8.319389662374846</v>
+        <v>5.919654877496441</v>
       </c>
       <c r="D216">
-        <v>0.0003537587084666343</v>
+        <v>18.5305675524002</v>
       </c>
       <c r="E216">
-        <v>6.27813386760429E-06</v>
+        <v>18.21376421564203</v>
       </c>
       <c r="F216">
-        <v>18.79117302697774</v>
+        <v>0.05243559004624058</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6.770941825067099</v>
+        <v>18.03742068863906</v>
       </c>
       <c r="C217">
-        <v>8.263242811322129</v>
+        <v>5.884884171160473</v>
       </c>
       <c r="D217">
-        <v>0.0003474810538230952</v>
+        <v>18.5165263593499</v>
       </c>
       <c r="E217">
-        <v>6.080348645022187E-06</v>
+        <v>18.19945208181777</v>
       </c>
       <c r="F217">
-        <v>18.7341298097128</v>
+        <v>0.05193717687416146</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6.713638354570565</v>
+        <v>18.02925590106821</v>
       </c>
       <c r="C218">
-        <v>8.207226892283277</v>
+        <v>5.850201001685189</v>
       </c>
       <c r="D218">
-        <v>0.000341351397153001</v>
+        <v>18.50248800518302</v>
       </c>
       <c r="E218">
-        <v>5.890202512414042E-06</v>
+        <v>18.18514378986451</v>
       </c>
       <c r="F218">
-        <v>18.67714613591383</v>
+        <v>0.05144806772213675</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6.656390350868008</v>
+        <v>18.02109211377056</v>
       </c>
       <c r="C219">
-        <v>8.151342594237546</v>
+        <v>5.815605739274106</v>
       </c>
       <c r="D219">
-        <v>0.0003353696283491757</v>
+        <v>18.48845249388357</v>
       </c>
       <c r="E219">
-        <v>5.709932716730334E-06</v>
+        <v>18.17083934298187</v>
       </c>
       <c r="F219">
-        <v>18.62022211348309</v>
+        <v>0.05096802984251574</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6.59919832635958</v>
+        <v>18.01292932726314</v>
       </c>
       <c r="C220">
-        <v>8.095590611931122</v>
+        <v>5.781098754713148</v>
       </c>
       <c r="D220">
-        <v>0.0003295263518285849</v>
+        <v>18.47441982924009</v>
       </c>
       <c r="E220">
-        <v>5.539088942698503E-06</v>
+        <v>18.15653874429857</v>
       </c>
       <c r="F220">
-        <v>18.56335784916597</v>
+        <v>0.05049684233169652</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6.542062802687247</v>
+        <v>18.00476754205981</v>
       </c>
       <c r="C221">
-        <v>8.039971645865156</v>
+        <v>5.746680419303325</v>
       </c>
       <c r="D221">
-        <v>0.0003238227705187726</v>
+        <v>18.46039001505365</v>
       </c>
       <c r="E221">
-        <v>5.376674640813917E-06</v>
+        <v>18.14224199675615</v>
       </c>
       <c r="F221">
-        <v>18.50655344805185</v>
+        <v>0.05003429750280502</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6.484984313596542</v>
+        <v>17.99660675867554</v>
       </c>
       <c r="C222">
-        <v>7.98448640234399</v>
+        <v>5.712351104866389</v>
       </c>
       <c r="D222">
-        <v>0.0003182513283474541</v>
+        <v>18.44636305501522</v>
       </c>
       <c r="E222">
-        <v>5.227624472093204E-06</v>
+        <v>18.12794910342535</v>
       </c>
       <c r="F222">
-        <v>18.44980901374317</v>
+        <v>0.0495801900455028</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6.42796340491286</v>
+        <v>17.98844697762354</v>
       </c>
       <c r="C223">
-        <v>7.929135593596684</v>
+        <v>5.678111183737776</v>
       </c>
       <c r="D223">
-        <v>0.0003128122533227979</v>
+        <v>18.43233895271107</v>
       </c>
       <c r="E223">
-        <v>5.08644429663104E-06</v>
+        <v>18.11366006730545</v>
       </c>
       <c r="F223">
-        <v>18.393124647052</v>
+        <v>0.04913430819622785</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6.371000636719529</v>
+        <v>17.98028819941551</v>
       </c>
       <c r="C224">
-        <v>7.873919937715063</v>
+        <v>5.643961028691136</v>
       </c>
       <c r="D224">
-        <v>0.0003074968019378003</v>
+        <v>18.41831771168041</v>
       </c>
       <c r="E224">
-        <v>4.948334456126073E-06</v>
+        <v>18.09937489135146</v>
       </c>
       <c r="F224">
-        <v>18.33650044923494</v>
+        <v>0.04869645466984306</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6.314096579330106</v>
+        <v>17.97213042456332</v>
       </c>
       <c r="C225">
-        <v>7.818840158552246</v>
+        <v>5.609901012927626</v>
       </c>
       <c r="D225">
-        <v>0.0003023021508660673</v>
+        <v>18.40429933540547</v>
       </c>
       <c r="E225">
-        <v>4.813252231428302E-06</v>
+        <v>18.08509357846312</v>
       </c>
       <c r="F225">
-        <v>18.27993651983887</v>
+        <v>0.04826644024149183</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6.257251816794406</v>
+        <v>17.96397365357771</v>
       </c>
       <c r="C226">
-        <v>7.763896985981616</v>
+        <v>5.575931510093827</v>
       </c>
       <c r="D226">
-        <v>0.0002972255004973839</v>
+        <v>18.39028382728516</v>
       </c>
       <c r="E226">
-        <v>4.678959704386327E-06</v>
+        <v>18.07081613156418</v>
       </c>
       <c r="F226">
-        <v>18.22343295731526</v>
+        <v>0.04784408921632172</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6.200466947071527</v>
+        <v>17.95581788696897</v>
       </c>
       <c r="C227">
-        <v>7.709091155856007</v>
+        <v>5.542052894189625</v>
       </c>
       <c r="D227">
-        <v>0.0002922640675656643</v>
+        <v>18.37627119066652</v>
       </c>
       <c r="E227">
-        <v>4.545009566221298E-06</v>
+        <v>18.05654255354109</v>
       </c>
       <c r="F227">
-        <v>18.16698985682202</v>
+        <v>0.04742921992240774</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6.143742583508898</v>
+        <v>17.94766312524702</v>
       </c>
       <c r="C228">
-        <v>7.654423409977934</v>
+        <v>5.508265539538844</v>
       </c>
       <c r="D228">
-        <v>0.0002874148260249265</v>
+        <v>18.36226142887276</v>
       </c>
       <c r="E228">
-        <v>4.412844803986113E-06</v>
+        <v>18.04227284724891</v>
       </c>
       <c r="F228">
-        <v>18.11060731512073</v>
+        <v>0.04702165593881083</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6.087079351311346</v>
+        <v>17.93950936892144</v>
       </c>
       <c r="C229">
-        <v>7.599894495920344</v>
+        <v>5.474569820835412</v>
       </c>
       <c r="D229">
-        <v>0.0002826745924308717</v>
+        <v>18.34825454515803</v>
       </c>
       <c r="E229">
-        <v>4.283384336755395E-06</v>
+        <v>18.02800701553392</v>
       </c>
       <c r="F229">
-        <v>18.05428542718258</v>
+        <v>0.04662123180298833</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6.030477891050603</v>
+        <v>17.93135661850104</v>
       </c>
       <c r="C230">
-        <v>7.545505167513073</v>
+        <v>5.440966113038285</v>
       </c>
       <c r="D230">
-        <v>0.0002780399832080491</v>
+        <v>18.33425054270785</v>
       </c>
       <c r="E230">
-        <v>4.159217598999167E-06</v>
+        <v>18.01374506123012</v>
       </c>
       <c r="F230">
-        <v>17.99802428715734</v>
+        <v>0.04622778862985878</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5.973938859505086</v>
+        <v>17.92320487449493</v>
       </c>
       <c r="C231">
-        <v>7.491256184539292</v>
+        <v>5.407454791326014</v>
       </c>
       <c r="D231">
-        <v>0.0002735080435587796</v>
+        <v>18.32024942471487</v>
       </c>
       <c r="E231">
-        <v>4.043024691997862E-06</v>
+        <v>17.99948698715402</v>
       </c>
       <c r="F231">
-        <v>17.94182398641119</v>
+        <v>0.04584115828378537</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>5.917462929831542</v>
+        <v>17.91505413741212</v>
       </c>
       <c r="C232">
-        <v>7.437148312782157</v>
+        <v>5.374036231157207</v>
       </c>
       <c r="D232">
-        <v>0.0002690760298827905</v>
+        <v>18.30625119431647</v>
       </c>
       <c r="E232">
-        <v>3.937875456228659E-06</v>
+        <v>17.9852327960917</v>
       </c>
       <c r="F232">
-        <v>17.88568461766715</v>
+        <v>0.04546119185567932</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>5.861050789141352</v>
+        <v>17.90690440776166</v>
       </c>
       <c r="C233">
-        <v>7.383182323951922</v>
+        <v>5.340710808163634</v>
       </c>
       <c r="D233">
-        <v>0.0002647402273196355</v>
+        <v>18.29225585457842</v>
       </c>
       <c r="E233">
-        <v>3.841114867666215E-06</v>
+        <v>17.97098249084202</v>
       </c>
       <c r="F233">
-        <v>17.82960627217473</v>
+        <v>0.04508774459762498</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5.804703141729457</v>
+        <v>17.89875568605082</v>
       </c>
       <c r="C234">
-        <v>7.329358996026247</v>
+        <v>5.307478898092313</v>
       </c>
       <c r="D234">
-        <v>0.0002604986300975667</v>
+        <v>18.27826340857879</v>
       </c>
       <c r="E234">
-        <v>3.750961514962801E-06</v>
+        <v>17.95673607418817</v>
       </c>
       <c r="F234">
-        <v>17.77358904049347</v>
+        <v>0.04472067269653916</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5.74842071096564</v>
+        <v>17.89060797278853</v>
       </c>
       <c r="C235">
-        <v>7.275679113010846</v>
+        <v>5.274340876870012</v>
       </c>
       <c r="D235">
-        <v>0.000256350428040132</v>
+        <v>18.26427385935335</v>
       </c>
       <c r="E235">
-        <v>3.662289264773198E-06</v>
+        <v>17.94249354888746</v>
       </c>
       <c r="F235">
-        <v>17.71763301157369</v>
+        <v>0.04435984034650079</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5.692204237310936</v>
+        <v>17.88246126848367</v>
       </c>
       <c r="C236">
-        <v>7.222143464896225</v>
+        <v>5.241297120499253</v>
       </c>
       <c r="D236">
-        <v>0.0002522884678219588</v>
+        <v>18.25028720988539</v>
       </c>
       <c r="E236">
-        <v>3.575435380225524E-06</v>
+        <v>17.92825491768891</v>
       </c>
       <c r="F236">
-        <v>17.66173827468812</v>
+        <v>0.0440050985778869</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5.63605447791379</v>
+        <v>17.87431557364516</v>
       </c>
       <c r="C237">
-        <v>7.168752847768594</v>
+        <v>5.208348004986736</v>
       </c>
       <c r="D237">
-        <v>0.0002483101148967161</v>
+        <v>18.23630346315763</v>
       </c>
       <c r="E237">
-        <v>3.491285530665315E-06</v>
+        <v>17.91402018334955</v>
       </c>
       <c r="F237">
-        <v>17.60590491827541</v>
+        <v>0.04365631764062782</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5.579972209126816</v>
+        <v>17.86617088877993</v>
       </c>
       <c r="C238">
-        <v>7.115508063956927</v>
+        <v>5.175493906415316</v>
       </c>
       <c r="D238">
-        <v>0.0002444170245333838</v>
+        <v>18.22232262212232</v>
       </c>
       <c r="E238">
-        <v>3.405439691781804E-06</v>
+        <v>17.89978934861325</v>
       </c>
       <c r="F238">
-        <v>17.55013303020704</v>
+        <v>0.04331337418741196</v>
       </c>
     </row>
   </sheetData>
